--- a/client_1_summary.xlsx
+++ b/client_1_summary.xlsx
@@ -716,7 +716,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,40 +1130,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6871,22 +6837,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="2" customWidth="1" style="155" min="1" max="1"/>
-    <col width="35.6640625" customWidth="1" style="155" min="2" max="2"/>
-    <col width="8" customWidth="1" style="155" min="3" max="3"/>
-    <col width="14.33203125" customWidth="1" style="155" min="4" max="4"/>
-    <col width="0.6640625" customWidth="1" style="155" min="16" max="16"/>
-    <col width="14.33203125" customWidth="1" style="155" min="17" max="17"/>
-    <col width="2.1640625" customWidth="1" style="155" min="18" max="18"/>
-    <col width="10.33203125" customWidth="1" style="155" min="19" max="19"/>
-    <col width="2.1640625" customWidth="1" style="155" min="20" max="20"/>
-    <col width="8.83203125" customWidth="1" style="155" min="21" max="21"/>
+    <col width="2" customWidth="1" style="44" min="1" max="1"/>
+    <col width="35.6640625" customWidth="1" style="44" min="2" max="2"/>
+    <col width="8" customWidth="1" style="46" min="3" max="3"/>
+    <col width="14.33203125" customWidth="1" style="46" min="4" max="15"/>
+    <col width="0.6640625" customWidth="1" style="46" min="16" max="16"/>
+    <col width="14.33203125" customWidth="1" style="46" min="17" max="17"/>
+    <col width="2.1640625" customWidth="1" style="44" min="18" max="18"/>
+    <col width="10.33203125" customWidth="1" style="44" min="19" max="19"/>
+    <col width="2.1640625" customWidth="1" style="44" min="20" max="20"/>
+    <col width="8.83203125" customWidth="1" style="44" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" s="155">
-      <c r="B1" s="171" t="inlineStr">
+      <c r="B1" s="45" t="inlineStr">
         <is>
           <t>CHANNEL MARKETING BUDGET</t>
         </is>
@@ -6908,7 +6874,7 @@
       <c r="R1" s="48" t="n"/>
       <c r="T1" s="48" t="n"/>
     </row>
-    <row r="2" ht="15" customHeight="1" s="155">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="49" thickBot="1">
       <c r="B2" s="50" t="n"/>
       <c r="C2" s="51" t="inlineStr">
         <is>
@@ -6985,7 +6951,7 @@
       <c r="S2" s="56" t="n"/>
       <c r="T2" s="55" t="n"/>
     </row>
-    <row r="3" ht="19" customHeight="1" s="155">
+    <row r="3" ht="19" customFormat="1" customHeight="1" s="57" thickTop="1">
       <c r="B3" s="57" t="inlineStr">
         <is>
           <t>ANTICIPATED SALES TOTAL $(000)</t>
@@ -7029,68 +6995,55 @@
         <v>2000</v>
       </c>
       <c r="P3" s="59" t="n"/>
-      <c r="Q3" s="60">
-        <f>SUM(D3:O3)</f>
-        <v/>
+      <c r="Q3" s="60" t="n">
+        <v>16950</v>
       </c>
       <c r="R3" s="61" t="n"/>
       <c r="S3" s="62" t="n"/>
       <c r="T3" s="61" t="n"/>
     </row>
-    <row r="4" ht="27" customHeight="1" s="155">
-      <c r="B4" s="172" t="inlineStr">
+    <row r="4" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>PERSONNEL (% OF TOTAL SALES)</t>
         </is>
       </c>
       <c r="C4" s="65" t="n"/>
-      <c r="D4" s="66">
-        <f>D9+D28+D35+D41</f>
-        <v/>
-      </c>
-      <c r="E4" s="66">
-        <f>E9+E28+E35+E41</f>
-        <v/>
-      </c>
-      <c r="F4" s="66">
-        <f>F9+F28+F35+F41</f>
-        <v/>
-      </c>
-      <c r="G4" s="66">
-        <f>G9+G28+G35+G41</f>
-        <v/>
-      </c>
-      <c r="H4" s="66">
-        <f>H9+H28+H35+H41</f>
-        <v/>
-      </c>
-      <c r="I4" s="66">
-        <f>I9+I28+I35+I41</f>
-        <v/>
-      </c>
-      <c r="J4" s="66">
-        <f>J9+J28+J35+J41</f>
-        <v/>
-      </c>
-      <c r="K4" s="66">
-        <f>K9+K28+K35+K41</f>
-        <v/>
-      </c>
-      <c r="L4" s="66">
-        <f>L9+L28+L35+L41</f>
-        <v/>
-      </c>
-      <c r="M4" s="66">
-        <f>M9+M28+M35+M41</f>
-        <v/>
-      </c>
-      <c r="N4" s="66">
-        <f>N9+N28+N35+N41</f>
-        <v/>
-      </c>
-      <c r="O4" s="66">
-        <f>O9+O28+O35+O41</f>
-        <v/>
+      <c r="D4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L4" s="66" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="M4" s="66" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="N4" s="66" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="O4" s="66" t="n">
+        <v>0.8500000000000001</v>
       </c>
       <c r="P4" s="67" t="n"/>
       <c r="Q4" s="68" t="n"/>
@@ -7098,7 +7051,7 @@
       <c r="S4" s="70" t="n"/>
       <c r="T4" s="69" t="n"/>
     </row>
-    <row r="5" ht="13" customHeight="1" s="155">
+    <row r="5" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B5" s="71" t="inlineStr">
         <is>
           <t>Human Resources - Headcount</t>
@@ -7107,53 +7060,41 @@
       <c r="C5" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="E5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="F5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="G5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="H5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="I5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="J5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="K5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="L5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="M5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="N5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="O5" s="73">
-        <f>+$C$5</f>
-        <v/>
+      <c r="D5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" s="73" t="n">
+        <v>5</v>
       </c>
       <c r="P5" s="74" t="n"/>
       <c r="Q5" s="75" t="n"/>
@@ -7161,71 +7102,58 @@
       <c r="S5" s="77" t="n"/>
       <c r="T5" s="76" t="n"/>
     </row>
-    <row r="6" ht="13" customHeight="1" s="155">
+    <row r="6" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B6" s="78" t="inlineStr">
         <is>
           <t>Human Resources - Cost</t>
         </is>
       </c>
       <c r="C6" s="79" t="n"/>
-      <c r="D6" s="80">
-        <f>$C$5*D5</f>
-        <v/>
-      </c>
-      <c r="E6" s="80">
-        <f>$C$5*E5</f>
-        <v/>
-      </c>
-      <c r="F6" s="80">
-        <f>$C$5*F5</f>
-        <v/>
-      </c>
-      <c r="G6" s="80">
-        <f>$C$5*G5</f>
-        <v/>
-      </c>
-      <c r="H6" s="80">
-        <f>$C$5*H5</f>
-        <v/>
-      </c>
-      <c r="I6" s="80">
-        <f>$C$5*I5</f>
-        <v/>
-      </c>
-      <c r="J6" s="80">
-        <f>$C$5*J5</f>
-        <v/>
-      </c>
-      <c r="K6" s="80">
-        <f>$C$5*K5</f>
-        <v/>
-      </c>
-      <c r="L6" s="80">
-        <f>$C$5*L5</f>
-        <v/>
-      </c>
-      <c r="M6" s="80">
-        <f>$C$5*M5</f>
-        <v/>
-      </c>
-      <c r="N6" s="80">
-        <f>$C$5*N5</f>
-        <v/>
-      </c>
-      <c r="O6" s="80">
-        <f>$C$5*O5</f>
-        <v/>
+      <c r="D6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="H6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="J6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="K6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="L6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="M6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="N6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="O6" s="80" t="n">
+        <v>25</v>
       </c>
       <c r="P6" s="81" t="n"/>
-      <c r="Q6" s="82">
-        <f>SUM(Summary!$D6:$O6)</f>
-        <v/>
+      <c r="Q6" s="82" t="n">
+        <v>300</v>
       </c>
       <c r="R6" s="83" t="n"/>
       <c r="S6" s="84" t="n"/>
       <c r="T6" s="83" t="n"/>
     </row>
-    <row r="7" ht="13" customHeight="1" s="155">
+    <row r="7" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B7" s="85" t="inlineStr">
         <is>
           <t>Commission</t>
@@ -7234,129 +7162,103 @@
       <c r="C7" s="86" t="n">
         <v>0.001</v>
       </c>
-      <c r="D7" s="87">
-        <f>D3*$C$7</f>
-        <v/>
-      </c>
-      <c r="E7" s="87">
-        <f>E3*$C$7</f>
-        <v/>
-      </c>
-      <c r="F7" s="87">
-        <f>F3*$C$7</f>
-        <v/>
-      </c>
-      <c r="G7" s="87">
-        <f>G3*$C$7</f>
-        <v/>
-      </c>
-      <c r="H7" s="87">
-        <f>H3*$C$7</f>
-        <v/>
-      </c>
-      <c r="I7" s="87">
-        <f>I3*$C$7</f>
-        <v/>
-      </c>
-      <c r="J7" s="87">
-        <f>J3*$C$7</f>
-        <v/>
-      </c>
-      <c r="K7" s="87">
-        <f>K3*$C$7</f>
-        <v/>
-      </c>
-      <c r="L7" s="87">
-        <f>L3*$C$7</f>
-        <v/>
-      </c>
-      <c r="M7" s="87">
-        <f>M3*$C$7</f>
-        <v/>
-      </c>
-      <c r="N7" s="87">
-        <f>N3*$C$7</f>
-        <v/>
-      </c>
-      <c r="O7" s="87">
-        <f>O3*$C$7</f>
-        <v/>
+      <c r="D7" s="87" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="87" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L7" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="87" t="n">
+        <v>2</v>
       </c>
       <c r="P7" s="81" t="n"/>
-      <c r="Q7" s="88">
-        <f>SUM(Summary!$D7:$O7)</f>
-        <v/>
+      <c r="Q7" s="88" t="n">
+        <v>16.95</v>
       </c>
       <c r="R7" s="89" t="n"/>
       <c r="S7" s="90" t="n"/>
       <c r="T7" s="89" t="n"/>
     </row>
-    <row r="8" ht="24" customHeight="1" s="155">
-      <c r="B8" s="173" t="inlineStr">
+    <row r="8" ht="24" customHeight="1" s="155" thickBot="1">
+      <c r="B8" s="39" t="inlineStr">
         <is>
           <t>Personnel Total $(000)</t>
         </is>
       </c>
-      <c r="C8" s="173" t="n"/>
-      <c r="D8" s="174">
-        <f>SUM(D6:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="174">
-        <f>SUM(E6:E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="174">
-        <f>SUM(F6:F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="174">
-        <f>SUM(G6:G7)</f>
-        <v/>
-      </c>
-      <c r="H8" s="174">
-        <f>SUM(H6:H7)</f>
-        <v/>
-      </c>
-      <c r="I8" s="174">
-        <f>SUM(I6:I7)</f>
-        <v/>
-      </c>
-      <c r="J8" s="174">
-        <f>SUM(J6:J7)</f>
-        <v/>
-      </c>
-      <c r="K8" s="174">
-        <f>SUM(K6:K7)</f>
-        <v/>
-      </c>
-      <c r="L8" s="174">
-        <f>SUM(L6:L7)</f>
-        <v/>
-      </c>
-      <c r="M8" s="174">
-        <f>SUM(M6:M7)</f>
-        <v/>
-      </c>
-      <c r="N8" s="174">
-        <f>SUM(N6:N7)</f>
-        <v/>
-      </c>
-      <c r="O8" s="174">
-        <f>SUM(O6:O7)</f>
-        <v/>
+      <c r="C8" s="39" t="n"/>
+      <c r="D8" s="91" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E8" s="91" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F8" s="91" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G8" s="91" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H8" s="91" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I8" s="91" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J8" s="91" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K8" s="91" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="L8" s="91" t="n">
+        <v>27</v>
+      </c>
+      <c r="M8" s="91" t="n">
+        <v>27</v>
+      </c>
+      <c r="N8" s="91" t="n">
+        <v>27</v>
+      </c>
+      <c r="O8" s="91" t="n">
+        <v>27</v>
       </c>
       <c r="P8" s="92" t="n"/>
-      <c r="Q8" s="93">
-        <f>SUM(Summary!$D8:$O8)</f>
-        <v/>
+      <c r="Q8" s="93" t="n">
+        <v>316.95</v>
       </c>
       <c r="R8" s="94" t="n"/>
       <c r="S8" s="95" t="n"/>
       <c r="T8" s="94" t="n"/>
     </row>
-    <row r="9" ht="27" customHeight="1" s="155">
-      <c r="B9" s="175" t="inlineStr">
+    <row r="9" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B9" s="96" t="inlineStr">
         <is>
           <t>DIRECT MARKETING (% OF TOTAL SALES)</t>
         </is>
@@ -7404,7 +7306,7 @@
       <c r="S9" s="70" t="n"/>
       <c r="T9" s="69" t="n"/>
     </row>
-    <row r="10" ht="13" customHeight="1" s="155">
+    <row r="10" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B10" s="71" t="inlineStr">
         <is>
           <t>Telemarketing (% of Direct Sales)</t>
@@ -7453,7 +7355,7 @@
       <c r="S10" s="77" t="n"/>
       <c r="T10" s="76" t="n"/>
     </row>
-    <row r="11" ht="13" customHeight="1" s="155">
+    <row r="11" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B11" s="99" t="inlineStr">
         <is>
           <t>Human Resources - Headcount</t>
@@ -7462,64 +7364,51 @@
       <c r="C11" s="100" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="79">
-        <f>$C$11*D10</f>
-        <v/>
-      </c>
-      <c r="E11" s="79">
-        <f>$C$11*E10</f>
-        <v/>
-      </c>
-      <c r="F11" s="79">
-        <f>$C$11*F10</f>
-        <v/>
-      </c>
-      <c r="G11" s="79">
-        <f>$C$11*G10</f>
-        <v/>
-      </c>
-      <c r="H11" s="79">
-        <f>$C$11*H10</f>
-        <v/>
-      </c>
-      <c r="I11" s="79">
-        <f>$C$11*I10</f>
-        <v/>
-      </c>
-      <c r="J11" s="79">
-        <f>$C$11*J10</f>
-        <v/>
-      </c>
-      <c r="K11" s="79">
-        <f>$C$11*K10</f>
-        <v/>
-      </c>
-      <c r="L11" s="79">
-        <f>$C$11*L10</f>
-        <v/>
-      </c>
-      <c r="M11" s="79">
-        <f>$C$11*M10</f>
-        <v/>
-      </c>
-      <c r="N11" s="79">
-        <f>$C$11*N10</f>
-        <v/>
-      </c>
-      <c r="O11" s="101">
-        <f>$C$11*O10</f>
-        <v/>
+      <c r="D11" s="79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="101" t="n">
+        <v>1.5</v>
       </c>
       <c r="P11" s="74" t="n"/>
-      <c r="Q11" s="82">
-        <f>SUM(Summary!$D11:$O11)</f>
-        <v/>
+      <c r="Q11" s="82" t="n">
+        <v>19.5</v>
       </c>
       <c r="R11" s="83" t="n"/>
       <c r="S11" s="102" t="n"/>
       <c r="T11" s="83" t="n"/>
     </row>
-    <row r="12" ht="13" customHeight="1" s="155">
+    <row r="12" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B12" s="99" t="inlineStr">
         <is>
           <t>Infrastructure Support</t>
@@ -7563,15 +7452,14 @@
         <v>10</v>
       </c>
       <c r="P12" s="74" t="n"/>
-      <c r="Q12" s="82">
-        <f>SUM(Summary!$D12:$O12)</f>
-        <v/>
+      <c r="Q12" s="82" t="n">
+        <v>210</v>
       </c>
       <c r="R12" s="83" t="n"/>
       <c r="S12" s="102" t="n"/>
       <c r="T12" s="83" t="n"/>
     </row>
-    <row r="13" ht="13" customHeight="1" s="155">
+    <row r="13" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B13" s="99" t="inlineStr">
         <is>
           <t>Commission</t>
@@ -7580,64 +7468,51 @@
       <c r="C13" s="103" t="n">
         <v>0.001</v>
       </c>
-      <c r="D13" s="80">
-        <f>$C$13*D3*D9*D10</f>
-        <v/>
-      </c>
-      <c r="E13" s="80">
-        <f>$C$13*E3*E9*E10</f>
-        <v/>
-      </c>
-      <c r="F13" s="80">
-        <f>$C$13*F3*F9*F10</f>
-        <v/>
-      </c>
-      <c r="G13" s="80">
-        <f>$C$13*G3*G9*G10</f>
-        <v/>
-      </c>
-      <c r="H13" s="80">
-        <f>$C$13*H3*H9*H10</f>
-        <v/>
-      </c>
-      <c r="I13" s="80">
-        <f>$C$13*I3*I9*I10</f>
-        <v/>
-      </c>
-      <c r="J13" s="80">
-        <f>$C$13*J3*J9*J10</f>
-        <v/>
-      </c>
-      <c r="K13" s="80">
-        <f>$C$13*K3*K9*K10</f>
-        <v/>
-      </c>
-      <c r="L13" s="80">
-        <f>$C$13*L3*L9*L10</f>
-        <v/>
-      </c>
-      <c r="M13" s="80">
-        <f>$C$13*M3*M9*M10</f>
-        <v/>
-      </c>
-      <c r="N13" s="80">
-        <f>$C$13*N3*N9*N10</f>
-        <v/>
-      </c>
-      <c r="O13" s="80">
-        <f>$C$13*O3*O9*O10</f>
-        <v/>
+      <c r="D13" s="80" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="80" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="G13" s="80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="80" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="I13" s="80" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="J13" s="80" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K13" s="80" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="L13" s="80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N13" s="80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="80" t="n">
+        <v>0.05</v>
       </c>
       <c r="P13" s="74" t="n"/>
-      <c r="Q13" s="82">
-        <f>SUM(Summary!$D13:$O13)</f>
-        <v/>
+      <c r="Q13" s="82" t="n">
+        <v>2.163</v>
       </c>
       <c r="R13" s="83" t="n"/>
       <c r="S13" s="102" t="n"/>
       <c r="T13" s="83" t="n"/>
     </row>
-    <row r="14" ht="13" customHeight="1" s="155">
+    <row r="14" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B14" s="104" t="inlineStr">
         <is>
           <t>Training</t>
@@ -7681,79 +7556,65 @@
         <v>10</v>
       </c>
       <c r="P14" s="74" t="n"/>
-      <c r="Q14" s="88">
-        <f>SUM(Summary!$D14:$O14)</f>
-        <v/>
+      <c r="Q14" s="88" t="n">
+        <v>210</v>
       </c>
       <c r="R14" s="89" t="n"/>
       <c r="S14" s="106" t="n"/>
       <c r="T14" s="89" t="n"/>
     </row>
-    <row r="15" ht="19" customHeight="1" s="155">
-      <c r="B15" s="176" t="inlineStr">
+    <row r="15" ht="19" customFormat="1" customHeight="1" s="107">
+      <c r="B15" s="108" t="inlineStr">
         <is>
           <t>Telemarketing Total $(000)</t>
         </is>
       </c>
-      <c r="C15" s="177" t="n"/>
-      <c r="D15" s="178">
-        <f>SUM(D11:D14)</f>
-        <v/>
-      </c>
-      <c r="E15" s="178">
-        <f>SUM(E11:E14)</f>
-        <v/>
-      </c>
-      <c r="F15" s="178">
-        <f>SUM(F11:F14)</f>
-        <v/>
-      </c>
-      <c r="G15" s="178">
-        <f>SUM(G11:G14)</f>
-        <v/>
-      </c>
-      <c r="H15" s="178">
-        <f>SUM(H11:H14)</f>
-        <v/>
-      </c>
-      <c r="I15" s="178">
-        <f>SUM(I11:I14)</f>
-        <v/>
-      </c>
-      <c r="J15" s="178">
-        <f>SUM(J11:J14)</f>
-        <v/>
-      </c>
-      <c r="K15" s="178">
-        <f>SUM(K11:K14)</f>
-        <v/>
-      </c>
-      <c r="L15" s="178">
-        <f>SUM(L11:L14)</f>
-        <v/>
-      </c>
-      <c r="M15" s="178">
-        <f>SUM(M11:M14)</f>
-        <v/>
-      </c>
-      <c r="N15" s="178">
-        <f>SUM(N11:N14)</f>
-        <v/>
-      </c>
-      <c r="O15" s="178">
-        <f>SUM(O11:O14)</f>
-        <v/>
+      <c r="C15" s="109" t="n"/>
+      <c r="D15" s="110" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="E15" s="110" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F15" s="110" t="n">
+        <v>51.6875</v>
+      </c>
+      <c r="G15" s="110" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H15" s="110" t="n">
+        <v>51.698</v>
+      </c>
+      <c r="I15" s="110" t="n">
+        <v>21.6875</v>
+      </c>
+      <c r="J15" s="110" t="n">
+        <v>51.65</v>
+      </c>
+      <c r="K15" s="110" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="L15" s="110" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="M15" s="110" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="N15" s="110" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="O15" s="110" t="n">
+        <v>21.55</v>
       </c>
       <c r="P15" s="111" t="n"/>
-      <c r="Q15" s="112">
-        <f>SUM(Summary!$D15:$O15)</f>
-        <v/>
+      <c r="Q15" s="112" t="n">
+        <v>441.663</v>
       </c>
       <c r="R15" s="113" t="n"/>
       <c r="S15" s="114" t="n"/>
       <c r="T15" s="113" t="n"/>
     </row>
-    <row r="16" ht="13" customHeight="1" s="155">
+    <row r="16" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B16" s="115" t="inlineStr">
         <is>
           <t>Internet Marketing (% of Direct Sales)</t>
@@ -7802,7 +7663,7 @@
       <c r="S16" s="120" t="n"/>
       <c r="T16" s="119" t="n"/>
     </row>
-    <row r="17" ht="13" customHeight="1" s="155">
+    <row r="17" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B17" s="99" t="inlineStr">
         <is>
           <t>Human Resources - Headcount</t>
@@ -7811,64 +7672,51 @@
       <c r="C17" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="79">
-        <f>$C$17*D16</f>
-        <v/>
-      </c>
-      <c r="E17" s="79">
-        <f>$C$17*E16</f>
-        <v/>
-      </c>
-      <c r="F17" s="79">
-        <f>$C$17*F16</f>
-        <v/>
-      </c>
-      <c r="G17" s="79">
-        <f>$C$17*G16</f>
-        <v/>
-      </c>
-      <c r="H17" s="79">
-        <f>$C$17*H16</f>
-        <v/>
-      </c>
-      <c r="I17" s="79">
-        <f>$C$17*I16</f>
-        <v/>
-      </c>
-      <c r="J17" s="79">
-        <f>$C$17*J16</f>
-        <v/>
-      </c>
-      <c r="K17" s="79">
-        <f>$C$17*K16</f>
-        <v/>
-      </c>
-      <c r="L17" s="79">
-        <f>$C$17*L16</f>
-        <v/>
-      </c>
-      <c r="M17" s="79">
-        <f>$C$17*M16</f>
-        <v/>
-      </c>
-      <c r="N17" s="79">
-        <f>$C$17*N16</f>
-        <v/>
-      </c>
-      <c r="O17" s="101">
-        <f>$C$17*O16</f>
-        <v/>
+      <c r="D17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="101" t="n">
+        <v>0.25</v>
       </c>
       <c r="P17" s="74" t="n"/>
-      <c r="Q17" s="82">
-        <f>SUM(Summary!$D17:$O17)</f>
-        <v/>
+      <c r="Q17" s="82" t="n">
+        <v>3</v>
       </c>
       <c r="R17" s="83" t="n"/>
       <c r="S17" s="102" t="n"/>
       <c r="T17" s="83" t="n"/>
     </row>
-    <row r="18" ht="13" customHeight="1" s="155">
+    <row r="18" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B18" s="99" t="inlineStr">
         <is>
           <t>Website Development (one-time cost)</t>
@@ -7890,15 +7738,14 @@
       <c r="N18" s="100" t="n"/>
       <c r="O18" s="100" t="n"/>
       <c r="P18" s="74" t="n"/>
-      <c r="Q18" s="82">
-        <f>SUM(Summary!$D18:$O18)</f>
-        <v/>
+      <c r="Q18" s="82" t="n">
+        <v>500</v>
       </c>
       <c r="R18" s="83" t="n"/>
       <c r="S18" s="102" t="n"/>
       <c r="T18" s="83" t="n"/>
     </row>
-    <row r="19" ht="13" customHeight="1" s="155">
+    <row r="19" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B19" s="99" t="inlineStr">
         <is>
           <t>Hosting</t>
@@ -7942,15 +7789,14 @@
         <v>10</v>
       </c>
       <c r="P19" s="74" t="n"/>
-      <c r="Q19" s="82">
-        <f>SUM(Summary!$D19:$O19)</f>
-        <v/>
+      <c r="Q19" s="82" t="n">
+        <v>120</v>
       </c>
       <c r="R19" s="83" t="n"/>
       <c r="S19" s="102" t="n"/>
       <c r="T19" s="83" t="n"/>
     </row>
-    <row r="20" ht="13" customHeight="1" s="155">
+    <row r="20" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B20" s="104" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
@@ -7974,79 +7820,65 @@
       </c>
       <c r="O20" s="121" t="n"/>
       <c r="P20" s="74" t="n"/>
-      <c r="Q20" s="88">
-        <f>SUM(Summary!$D20:$O20)</f>
-        <v/>
+      <c r="Q20" s="88" t="n">
+        <v>50</v>
       </c>
       <c r="R20" s="89" t="n"/>
       <c r="S20" s="106" t="n"/>
       <c r="T20" s="89" t="n"/>
     </row>
-    <row r="21" ht="19" customHeight="1" s="155">
-      <c r="B21" s="176" t="inlineStr">
+    <row r="21" ht="19" customFormat="1" customHeight="1" s="107">
+      <c r="B21" s="108" t="inlineStr">
         <is>
           <t>Internet Marketing Total $(000)</t>
         </is>
       </c>
-      <c r="C21" s="176" t="n"/>
-      <c r="D21" s="179">
-        <f>SUM(D17:D20)</f>
-        <v/>
-      </c>
-      <c r="E21" s="179">
-        <f>SUM(E17:E20)</f>
-        <v/>
-      </c>
-      <c r="F21" s="179">
-        <f>SUM(F17:F20)</f>
-        <v/>
-      </c>
-      <c r="G21" s="179">
-        <f>SUM(G17:G20)</f>
-        <v/>
-      </c>
-      <c r="H21" s="179">
-        <f>SUM(H17:H20)</f>
-        <v/>
-      </c>
-      <c r="I21" s="179">
-        <f>SUM(I17:I20)</f>
-        <v/>
-      </c>
-      <c r="J21" s="179">
-        <f>SUM(J17:J20)</f>
-        <v/>
-      </c>
-      <c r="K21" s="179">
-        <f>SUM(K17:K20)</f>
-        <v/>
-      </c>
-      <c r="L21" s="179">
-        <f>SUM(L17:L20)</f>
-        <v/>
-      </c>
-      <c r="M21" s="179">
-        <f>SUM(M17:M20)</f>
-        <v/>
-      </c>
-      <c r="N21" s="179">
-        <f>SUM(N17:N20)</f>
-        <v/>
-      </c>
-      <c r="O21" s="179">
-        <f>SUM(O17:O20)</f>
-        <v/>
+      <c r="C21" s="108" t="n"/>
+      <c r="D21" s="122" t="n">
+        <v>535.25</v>
+      </c>
+      <c r="E21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="H21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="I21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="J21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="K21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="L21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="N21" s="122" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="O21" s="122" t="n">
+        <v>10.25</v>
       </c>
       <c r="P21" s="111" t="n"/>
-      <c r="Q21" s="112">
-        <f>SUM(Summary!$D21:$O21)</f>
-        <v/>
+      <c r="Q21" s="112" t="n">
+        <v>673</v>
       </c>
       <c r="R21" s="113" t="n"/>
       <c r="S21" s="114" t="n"/>
       <c r="T21" s="113" t="n"/>
     </row>
-    <row r="22" s="155">
+    <row r="22" customFormat="1" s="49">
       <c r="B22" s="115" t="inlineStr">
         <is>
           <t>Direct Mail (% of Direct Sales)</t>
@@ -8071,7 +7903,7 @@
       <c r="S22" s="120" t="n"/>
       <c r="T22" s="119" t="n"/>
     </row>
-    <row r="23" ht="13" customHeight="1" s="155">
+    <row r="23" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B23" s="99" t="inlineStr">
         <is>
           <t>Human Resources - Cost</t>
@@ -8091,15 +7923,14 @@
       <c r="N23" s="100" t="n"/>
       <c r="O23" s="123" t="n"/>
       <c r="P23" s="74" t="n"/>
-      <c r="Q23" s="82">
-        <f>SUM(Summary!$D23:$O23)</f>
-        <v/>
+      <c r="Q23" s="82" t="n">
+        <v>0</v>
       </c>
       <c r="R23" s="83" t="n"/>
       <c r="S23" s="102" t="n"/>
       <c r="T23" s="83" t="n"/>
     </row>
-    <row r="24" ht="13" customHeight="1" s="155">
+    <row r="24" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B24" s="99" t="inlineStr">
         <is>
           <t>Material</t>
@@ -8143,15 +7974,14 @@
         <v>1000</v>
       </c>
       <c r="P24" s="74" t="n"/>
-      <c r="Q24" s="82">
-        <f>SUM(Summary!$D24:$O24)</f>
-        <v/>
+      <c r="Q24" s="82" t="n">
+        <v>12000</v>
       </c>
       <c r="R24" s="83" t="n"/>
       <c r="S24" s="102" t="n"/>
       <c r="T24" s="83" t="n"/>
     </row>
-    <row r="25" ht="13" customHeight="1" s="155">
+    <row r="25" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B25" s="99" t="inlineStr">
         <is>
           <t>Postage</t>
@@ -8195,144 +8025,117 @@
         <v>250</v>
       </c>
       <c r="P25" s="74" t="n"/>
-      <c r="Q25" s="88">
-        <f>SUM(Summary!$D25:$O25)</f>
-        <v/>
+      <c r="Q25" s="88" t="n">
+        <v>3000</v>
       </c>
       <c r="R25" s="89" t="n"/>
       <c r="S25" s="106" t="n"/>
       <c r="T25" s="89" t="n"/>
     </row>
-    <row r="26" ht="20" customHeight="1" s="155">
-      <c r="B26" s="176" t="inlineStr">
+    <row r="26" ht="20" customFormat="1" customHeight="1" s="107" thickBot="1">
+      <c r="B26" s="108" t="inlineStr">
         <is>
           <t>Direct Mail Total $(000)</t>
         </is>
       </c>
-      <c r="C26" s="176" t="n"/>
-      <c r="D26" s="179">
-        <f>SUM(D23:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="179">
-        <f>SUM(E23:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="179">
-        <f>SUM(F23:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="179">
-        <f>SUM(G23:G25)</f>
-        <v/>
-      </c>
-      <c r="H26" s="179">
-        <f>SUM(H23:H25)</f>
-        <v/>
-      </c>
-      <c r="I26" s="179">
-        <f>SUM(I23:I25)</f>
-        <v/>
-      </c>
-      <c r="J26" s="179">
-        <f>SUM(J23:J25)</f>
-        <v/>
-      </c>
-      <c r="K26" s="179">
-        <f>SUM(K23:K25)</f>
-        <v/>
-      </c>
-      <c r="L26" s="179">
-        <f>SUM(L23:L25)</f>
-        <v/>
-      </c>
-      <c r="M26" s="179">
-        <f>SUM(M23:M25)</f>
-        <v/>
-      </c>
-      <c r="N26" s="179">
-        <f>SUM(N23:N25)</f>
-        <v/>
-      </c>
-      <c r="O26" s="179">
-        <f>SUM(O23:O25)</f>
-        <v/>
+      <c r="C26" s="108" t="n"/>
+      <c r="D26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="I26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="J26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="K26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="L26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="M26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="O26" s="122" t="n">
+        <v>1250</v>
       </c>
       <c r="P26" s="111" t="n"/>
-      <c r="Q26" s="112">
-        <f>SUM(Q23:Q25)</f>
-        <v/>
+      <c r="Q26" s="112" t="n">
+        <v>15000</v>
       </c>
       <c r="R26" s="113" t="n"/>
       <c r="S26" s="124" t="n"/>
       <c r="T26" s="113" t="n"/>
     </row>
-    <row r="27" ht="24" customHeight="1" s="155">
-      <c r="B27" s="180" t="inlineStr">
+    <row r="27" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B27" s="125" t="inlineStr">
         <is>
           <t>Direct Marketing Total $(000)</t>
         </is>
       </c>
-      <c r="C27" s="173" t="n"/>
-      <c r="D27" s="174">
-        <f>SUM(D15,D21,D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="174">
-        <f>SUM(E15,E21,E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="174">
-        <f>SUM(F15,F21,F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="174">
-        <f>SUM(G15,G21,G26)</f>
-        <v/>
-      </c>
-      <c r="H27" s="174">
-        <f>SUM(H15,H21,H26)</f>
-        <v/>
-      </c>
-      <c r="I27" s="174">
-        <f>SUM(I15,I21,I26)</f>
-        <v/>
-      </c>
-      <c r="J27" s="174">
-        <f>SUM(J15,J21,J26)</f>
-        <v/>
-      </c>
-      <c r="K27" s="174">
-        <f>SUM(K15,K21,K26)</f>
-        <v/>
-      </c>
-      <c r="L27" s="174">
-        <f>SUM(L15,L21,L26)</f>
-        <v/>
-      </c>
-      <c r="M27" s="174">
-        <f>SUM(M15,M21,M26)</f>
-        <v/>
-      </c>
-      <c r="N27" s="174">
-        <f>SUM(N15,N21,N26)</f>
-        <v/>
-      </c>
-      <c r="O27" s="174">
-        <f>SUM(O15,O21,O26)</f>
-        <v/>
+      <c r="C27" s="39" t="n"/>
+      <c r="D27" s="91" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E27" s="91" t="n">
+        <v>1281.85</v>
+      </c>
+      <c r="F27" s="91" t="n">
+        <v>1311.9375</v>
+      </c>
+      <c r="G27" s="91" t="n">
+        <v>1282.05</v>
+      </c>
+      <c r="H27" s="91" t="n">
+        <v>1311.948</v>
+      </c>
+      <c r="I27" s="91" t="n">
+        <v>1281.9375</v>
+      </c>
+      <c r="J27" s="91" t="n">
+        <v>1311.9</v>
+      </c>
+      <c r="K27" s="91" t="n">
+        <v>1281.84</v>
+      </c>
+      <c r="L27" s="91" t="n">
+        <v>1311.8</v>
+      </c>
+      <c r="M27" s="91" t="n">
+        <v>1281.8</v>
+      </c>
+      <c r="N27" s="91" t="n">
+        <v>1336.8</v>
+      </c>
+      <c r="O27" s="91" t="n">
+        <v>1281.8</v>
       </c>
       <c r="P27" s="126" t="n"/>
-      <c r="Q27" s="112">
-        <f>SUM(Q15,Q21,Q26)</f>
-        <v/>
+      <c r="Q27" s="112" t="n">
+        <v>16114.663</v>
       </c>
       <c r="R27" s="113" t="n"/>
       <c r="S27" s="114" t="n"/>
       <c r="T27" s="113" t="n"/>
     </row>
-    <row r="28" ht="27" customHeight="1" s="155">
-      <c r="B28" s="175" t="inlineStr">
+    <row r="28" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B28" s="96" t="inlineStr">
         <is>
           <t>AGENT/BROKER (% OF TOTAL SALES)</t>
         </is>
@@ -8380,7 +8183,7 @@
       <c r="S28" s="70" t="n"/>
       <c r="T28" s="69" t="n"/>
     </row>
-    <row r="29" ht="13" customHeight="1" s="155">
+    <row r="29" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B29" s="71" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -8424,15 +8227,14 @@
         <v>50</v>
       </c>
       <c r="P29" s="74" t="n"/>
-      <c r="Q29" s="75">
-        <f>SUM(Summary!$D29:$O29)</f>
-        <v/>
+      <c r="Q29" s="75" t="n">
+        <v>600</v>
       </c>
       <c r="R29" s="76" t="n"/>
       <c r="S29" s="77" t="n"/>
       <c r="T29" s="76" t="n"/>
     </row>
-    <row r="30" ht="13" customHeight="1" s="155">
+    <row r="30" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B30" s="78" t="inlineStr">
         <is>
           <t>Training</t>
@@ -8476,15 +8278,14 @@
         <v>250</v>
       </c>
       <c r="P30" s="81" t="n"/>
-      <c r="Q30" s="82">
-        <f>SUM(Summary!$D30:$O30)</f>
-        <v/>
+      <c r="Q30" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R30" s="83" t="n"/>
       <c r="S30" s="84" t="n"/>
       <c r="T30" s="83" t="n"/>
     </row>
-    <row r="31" ht="13" customHeight="1" s="155">
+    <row r="31" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B31" s="78" t="inlineStr">
         <is>
           <t>Promotions</t>
@@ -8528,15 +8329,14 @@
         <v>600</v>
       </c>
       <c r="P31" s="81" t="n"/>
-      <c r="Q31" s="82">
-        <f>SUM(Summary!$D31:$O31)</f>
-        <v/>
+      <c r="Q31" s="82" t="n">
+        <v>7200</v>
       </c>
       <c r="R31" s="83" t="n"/>
       <c r="S31" s="84" t="n"/>
       <c r="T31" s="83" t="n"/>
     </row>
-    <row r="32" ht="13" customHeight="1" s="155">
+    <row r="32" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B32" s="78" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -8545,64 +8345,51 @@
       <c r="C32" s="103" t="n">
         <v>0.1</v>
       </c>
-      <c r="D32" s="80">
-        <f>D3*D28*$C$32</f>
-        <v/>
-      </c>
-      <c r="E32" s="80">
-        <f>E3*E28*$C$32</f>
-        <v/>
-      </c>
-      <c r="F32" s="80">
-        <f>F3*F28*$C$32</f>
-        <v/>
-      </c>
-      <c r="G32" s="80">
-        <f>G3*G28*$C$32</f>
-        <v/>
-      </c>
-      <c r="H32" s="80">
-        <f>H3*H28*$C$32</f>
-        <v/>
-      </c>
-      <c r="I32" s="80">
-        <f>I3*I28*$C$32</f>
-        <v/>
-      </c>
-      <c r="J32" s="80">
-        <f>J3*J28*$C$32</f>
-        <v/>
-      </c>
-      <c r="K32" s="80">
-        <f>K3*K28*$C$32</f>
-        <v/>
-      </c>
-      <c r="L32" s="80">
-        <f>L3*L28*$C$32</f>
-        <v/>
-      </c>
-      <c r="M32" s="80">
-        <f>M3*M28*$C$32</f>
-        <v/>
-      </c>
-      <c r="N32" s="80">
-        <f>N3*N28*$C$32</f>
-        <v/>
-      </c>
-      <c r="O32" s="80">
-        <f>O3*O28*$C$32</f>
-        <v/>
+      <c r="D32" s="80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E32" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="80" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="H32" s="80" t="n">
+        <v>12</v>
+      </c>
+      <c r="I32" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J32" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="K32" s="80" t="n">
+        <v>18</v>
+      </c>
+      <c r="L32" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="M32" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="N32" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="O32" s="80" t="n">
+        <v>20</v>
       </c>
       <c r="P32" s="81" t="n"/>
-      <c r="Q32" s="82">
-        <f>SUM(Summary!$D32:$O32)</f>
-        <v/>
+      <c r="Q32" s="82" t="n">
+        <v>169.5</v>
       </c>
       <c r="R32" s="83" t="n"/>
       <c r="S32" s="84" t="n"/>
       <c r="T32" s="83" t="n"/>
     </row>
-    <row r="33" ht="13" customHeight="1" s="155">
+    <row r="33" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B33" s="85" t="inlineStr">
         <is>
           <t>Commission (% of Agent's Sales)</t>
@@ -8611,129 +8398,103 @@
       <c r="C33" s="86" t="n">
         <v>0.1</v>
       </c>
-      <c r="D33" s="80">
-        <f>D3*D28*$C$33</f>
-        <v/>
-      </c>
-      <c r="E33" s="80">
-        <f>E3*E28*$C$33</f>
-        <v/>
-      </c>
-      <c r="F33" s="80">
-        <f>F3*F28*$C$33</f>
-        <v/>
-      </c>
-      <c r="G33" s="80">
-        <f>G3*G28*$C$33</f>
-        <v/>
-      </c>
-      <c r="H33" s="80">
-        <f>H3*H28*$C$33</f>
-        <v/>
-      </c>
-      <c r="I33" s="80">
-        <f>I3*I28*$C$33</f>
-        <v/>
-      </c>
-      <c r="J33" s="80">
-        <f>J3*J28*$C$33</f>
-        <v/>
-      </c>
-      <c r="K33" s="80">
-        <f>K3*K28*$C$33</f>
-        <v/>
-      </c>
-      <c r="L33" s="80">
-        <f>L3*L28*$C$33</f>
-        <v/>
-      </c>
-      <c r="M33" s="80">
-        <f>M3*M28*$C$33</f>
-        <v/>
-      </c>
-      <c r="N33" s="80">
-        <f>N3*N28*$C$33</f>
-        <v/>
-      </c>
-      <c r="O33" s="80">
-        <f>O3*O28*$C$33</f>
-        <v/>
+      <c r="D33" s="80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E33" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="80" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" s="80" t="n">
+        <v>12</v>
+      </c>
+      <c r="I33" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="K33" s="80" t="n">
+        <v>18</v>
+      </c>
+      <c r="L33" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="M33" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="N33" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="O33" s="80" t="n">
+        <v>20</v>
       </c>
       <c r="P33" s="74" t="n"/>
-      <c r="Q33" s="88">
-        <f>SUM(Summary!$D33:$O33)</f>
-        <v/>
+      <c r="Q33" s="88" t="n">
+        <v>169.5</v>
       </c>
       <c r="R33" s="89" t="n"/>
       <c r="S33" s="106" t="n"/>
       <c r="T33" s="89" t="n"/>
     </row>
-    <row r="34" ht="24" customHeight="1" s="155">
-      <c r="B34" s="173" t="inlineStr">
+    <row r="34" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B34" s="39" t="inlineStr">
         <is>
           <t>Agent/Broker Total $(000)</t>
         </is>
       </c>
-      <c r="C34" s="173" t="n"/>
-      <c r="D34" s="174">
-        <f>SUM(D29:D33)</f>
-        <v/>
-      </c>
-      <c r="E34" s="174">
-        <f>SUM(E29:E33)</f>
-        <v/>
-      </c>
-      <c r="F34" s="174">
-        <f>SUM(F29:F33)</f>
-        <v/>
-      </c>
-      <c r="G34" s="174">
-        <f>SUM(G29:G33)</f>
-        <v/>
-      </c>
-      <c r="H34" s="174">
-        <f>SUM(H29:H33)</f>
-        <v/>
-      </c>
-      <c r="I34" s="174">
-        <f>SUM(I29:I33)</f>
-        <v/>
-      </c>
-      <c r="J34" s="174">
-        <f>SUM(J29:J33)</f>
-        <v/>
-      </c>
-      <c r="K34" s="174">
-        <f>SUM(K29:K33)</f>
-        <v/>
-      </c>
-      <c r="L34" s="174">
-        <f>SUM(L29:L33)</f>
-        <v/>
-      </c>
-      <c r="M34" s="174">
-        <f>SUM(M29:M33)</f>
-        <v/>
-      </c>
-      <c r="N34" s="174">
-        <f>SUM(N29:N33)</f>
-        <v/>
-      </c>
-      <c r="O34" s="174">
-        <f>SUM(O29:O33)</f>
-        <v/>
+      <c r="C34" s="39" t="n"/>
+      <c r="D34" s="91" t="n">
+        <v>915</v>
+      </c>
+      <c r="E34" s="91" t="n">
+        <v>904</v>
+      </c>
+      <c r="F34" s="91" t="n">
+        <v>910</v>
+      </c>
+      <c r="G34" s="91" t="n">
+        <v>930</v>
+      </c>
+      <c r="H34" s="91" t="n">
+        <v>924</v>
+      </c>
+      <c r="I34" s="91" t="n">
+        <v>930</v>
+      </c>
+      <c r="J34" s="91" t="n">
+        <v>930</v>
+      </c>
+      <c r="K34" s="91" t="n">
+        <v>936</v>
+      </c>
+      <c r="L34" s="91" t="n">
+        <v>940</v>
+      </c>
+      <c r="M34" s="91" t="n">
+        <v>940</v>
+      </c>
+      <c r="N34" s="91" t="n">
+        <v>940</v>
+      </c>
+      <c r="O34" s="91" t="n">
+        <v>940</v>
       </c>
       <c r="P34" s="126" t="n"/>
-      <c r="Q34" s="112">
-        <f>SUM(Q29:Q33)</f>
-        <v/>
+      <c r="Q34" s="112" t="n">
+        <v>11139</v>
       </c>
       <c r="R34" s="113" t="n"/>
       <c r="S34" s="114" t="n"/>
       <c r="T34" s="113" t="n"/>
     </row>
-    <row r="35" ht="27" customHeight="1" s="155">
-      <c r="B35" s="175" t="inlineStr">
+    <row r="35" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B35" s="96" t="inlineStr">
         <is>
           <t>DISTRIBUTORS (% OF TOTAL SALES)</t>
         </is>
@@ -8781,7 +8542,7 @@
       <c r="S35" s="70" t="n"/>
       <c r="T35" s="69" t="n"/>
     </row>
-    <row r="36" ht="13" customHeight="1" s="155">
+    <row r="36" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B36" s="71" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -8825,15 +8586,14 @@
         <v>50</v>
       </c>
       <c r="P36" s="74" t="n"/>
-      <c r="Q36" s="75">
-        <f>SUM(Summary!$D36:$O36)</f>
-        <v/>
+      <c r="Q36" s="75" t="n">
+        <v>600</v>
       </c>
       <c r="R36" s="76" t="n"/>
       <c r="S36" s="77" t="n"/>
       <c r="T36" s="76" t="n"/>
     </row>
-    <row r="37" ht="13" customHeight="1" s="155">
+    <row r="37" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B37" s="78" t="inlineStr">
         <is>
           <t>Training</t>
@@ -8877,15 +8637,14 @@
         <v>250</v>
       </c>
       <c r="P37" s="81" t="n"/>
-      <c r="Q37" s="82">
-        <f>SUM(Summary!$D37:$O37)</f>
-        <v/>
+      <c r="Q37" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R37" s="83" t="n"/>
       <c r="S37" s="84" t="n"/>
       <c r="T37" s="83" t="n"/>
     </row>
-    <row r="38" ht="13" customHeight="1" s="155">
+    <row r="38" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B38" s="78" t="inlineStr">
         <is>
           <t>Promotions</t>
@@ -8929,15 +8688,14 @@
         <v>600</v>
       </c>
       <c r="P38" s="81" t="n"/>
-      <c r="Q38" s="82">
-        <f>SUM(Summary!$D38:$O38)</f>
-        <v/>
+      <c r="Q38" s="82" t="n">
+        <v>7200</v>
       </c>
       <c r="R38" s="83" t="n"/>
       <c r="S38" s="84" t="n"/>
       <c r="T38" s="83" t="n"/>
     </row>
-    <row r="39" ht="13" customHeight="1" s="155">
+    <row r="39" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B39" s="85" t="inlineStr">
         <is>
           <t>Commission/Discounts (% of Distributors' Sales)</t>
@@ -8946,129 +8704,103 @@
       <c r="C39" s="86" t="n">
         <v>0.15</v>
       </c>
-      <c r="D39" s="105">
-        <f>D3*D35*$C$39</f>
-        <v/>
-      </c>
-      <c r="E39" s="105">
-        <f>E3*E35*$C$39</f>
-        <v/>
-      </c>
-      <c r="F39" s="105">
-        <f>F3*F35*$C$39</f>
-        <v/>
-      </c>
-      <c r="G39" s="105">
-        <f>G3*G35*$C$39</f>
-        <v/>
-      </c>
-      <c r="H39" s="105">
-        <f>H3*H35*$C$39</f>
-        <v/>
-      </c>
-      <c r="I39" s="105">
-        <f>I3*I35*$C$39</f>
-        <v/>
-      </c>
-      <c r="J39" s="105">
-        <f>J3*J35*$C$39</f>
-        <v/>
-      </c>
-      <c r="K39" s="105">
-        <f>K3*K35*$C$39</f>
-        <v/>
-      </c>
-      <c r="L39" s="105">
-        <f>L3*L35*$C$39</f>
-        <v/>
-      </c>
-      <c r="M39" s="105">
-        <f>M3*M35*$C$39</f>
-        <v/>
-      </c>
-      <c r="N39" s="105">
-        <f>N3*N35*$C$39</f>
-        <v/>
-      </c>
-      <c r="O39" s="105">
-        <f>O3*O35*$C$39</f>
-        <v/>
+      <c r="D39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="105" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="J39" s="105" t="n">
+        <v>45</v>
+      </c>
+      <c r="K39" s="105" t="n">
+        <v>108</v>
+      </c>
+      <c r="L39" s="105" t="n">
+        <v>120</v>
+      </c>
+      <c r="M39" s="105" t="n">
+        <v>120</v>
+      </c>
+      <c r="N39" s="105" t="n">
+        <v>120</v>
+      </c>
+      <c r="O39" s="105" t="n">
+        <v>120</v>
       </c>
       <c r="P39" s="74" t="n"/>
-      <c r="Q39" s="88">
-        <f>SUM(Summary!$D39:$O39)</f>
-        <v/>
+      <c r="Q39" s="88" t="n">
+        <v>666.75</v>
       </c>
       <c r="R39" s="89" t="n"/>
       <c r="S39" s="106" t="n"/>
       <c r="T39" s="89" t="n"/>
     </row>
-    <row r="40" ht="24" customHeight="1" s="155">
-      <c r="B40" s="173" t="inlineStr">
+    <row r="40" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B40" s="39" t="inlineStr">
         <is>
           <t>Distributor Total $(000)</t>
         </is>
       </c>
-      <c r="C40" s="173" t="n"/>
-      <c r="D40" s="174">
-        <f>SUM(D36:D39)</f>
-        <v/>
-      </c>
-      <c r="E40" s="174">
-        <f>SUM(E36:E39)</f>
-        <v/>
-      </c>
-      <c r="F40" s="174">
-        <f>SUM(F36:F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="174">
-        <f>SUM(G36:G39)</f>
-        <v/>
-      </c>
-      <c r="H40" s="174">
-        <f>SUM(H36:H39)</f>
-        <v/>
-      </c>
-      <c r="I40" s="174">
-        <f>SUM(I36:I39)</f>
-        <v/>
-      </c>
-      <c r="J40" s="174">
-        <f>SUM(J36:J39)</f>
-        <v/>
-      </c>
-      <c r="K40" s="174">
-        <f>SUM(K36:K39)</f>
-        <v/>
-      </c>
-      <c r="L40" s="174">
-        <f>SUM(L36:L39)</f>
-        <v/>
-      </c>
-      <c r="M40" s="174">
-        <f>SUM(M36:M39)</f>
-        <v/>
-      </c>
-      <c r="N40" s="174">
-        <f>SUM(N36:N39)</f>
-        <v/>
-      </c>
-      <c r="O40" s="174">
-        <f>SUM(O36:O39)</f>
-        <v/>
+      <c r="C40" s="39" t="n"/>
+      <c r="D40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="E40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="F40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="G40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="H40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="I40" s="91" t="n">
+        <v>933.75</v>
+      </c>
+      <c r="J40" s="91" t="n">
+        <v>945</v>
+      </c>
+      <c r="K40" s="91" t="n">
+        <v>1008</v>
+      </c>
+      <c r="L40" s="91" t="n">
+        <v>1020</v>
+      </c>
+      <c r="M40" s="91" t="n">
+        <v>1020</v>
+      </c>
+      <c r="N40" s="91" t="n">
+        <v>1020</v>
+      </c>
+      <c r="O40" s="91" t="n">
+        <v>1020</v>
       </c>
       <c r="P40" s="126" t="n"/>
-      <c r="Q40" s="112">
-        <f>SUM(Q36:Q39)</f>
-        <v/>
+      <c r="Q40" s="112" t="n">
+        <v>11466.75</v>
       </c>
       <c r="R40" s="113" t="n"/>
       <c r="S40" s="114" t="n"/>
       <c r="T40" s="113" t="n"/>
     </row>
-    <row r="41" ht="27" customHeight="1" s="155">
-      <c r="B41" s="175" t="inlineStr">
+    <row r="41" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B41" s="96" t="inlineStr">
         <is>
           <t>RETAILER (% OF TOTAL SALES)</t>
         </is>
@@ -9116,7 +8848,7 @@
       <c r="S41" s="70" t="n"/>
       <c r="T41" s="69" t="n"/>
     </row>
-    <row r="42" ht="13" customHeight="1" s="155">
+    <row r="42" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B42" s="71" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -9160,15 +8892,14 @@
         <v>50</v>
       </c>
       <c r="P42" s="74" t="n"/>
-      <c r="Q42" s="75">
-        <f>SUM(Summary!$D42:$O42)</f>
-        <v/>
+      <c r="Q42" s="75" t="n">
+        <v>600</v>
       </c>
       <c r="R42" s="76" t="n"/>
       <c r="S42" s="77" t="n"/>
       <c r="T42" s="76" t="n"/>
     </row>
-    <row r="43" ht="13" customHeight="1" s="155">
+    <row r="43" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B43" s="78" t="inlineStr">
         <is>
           <t>Training</t>
@@ -9212,15 +8943,14 @@
         <v>250</v>
       </c>
       <c r="P43" s="81" t="n"/>
-      <c r="Q43" s="82">
-        <f>SUM(Summary!$D43:$O43)</f>
-        <v/>
+      <c r="Q43" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R43" s="83" t="n"/>
       <c r="S43" s="84" t="n"/>
       <c r="T43" s="83" t="n"/>
     </row>
-    <row r="44" ht="13" customHeight="1" s="155">
+    <row r="44" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B44" s="78" t="inlineStr">
         <is>
           <t>Promotions</t>
@@ -9264,15 +8994,14 @@
         <v>600</v>
       </c>
       <c r="P44" s="81" t="n"/>
-      <c r="Q44" s="82">
-        <f>SUM(Summary!$D44:$O44)</f>
-        <v/>
+      <c r="Q44" s="82" t="n">
+        <v>7200</v>
       </c>
       <c r="R44" s="83" t="n"/>
       <c r="S44" s="84" t="n"/>
       <c r="T44" s="83" t="n"/>
     </row>
-    <row r="45" ht="13" customHeight="1" s="155">
+    <row r="45" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B45" s="85" t="inlineStr">
         <is>
           <t>Commission/Discounts (% of Retail Sales)</t>
@@ -9281,134 +9010,108 @@
       <c r="C45" s="86" t="n">
         <v>0.1</v>
       </c>
-      <c r="D45" s="105">
-        <f>D3*D41*$C$45</f>
-        <v/>
-      </c>
-      <c r="E45" s="105">
-        <f>E3*E41*$C$45</f>
-        <v/>
-      </c>
-      <c r="F45" s="105">
-        <f>F3*F41*$C$45</f>
-        <v/>
-      </c>
-      <c r="G45" s="105">
-        <f>G3*G41*$C$45</f>
-        <v/>
-      </c>
-      <c r="H45" s="105">
-        <f>H3*H41*$C$45</f>
-        <v/>
-      </c>
-      <c r="I45" s="105">
-        <f>I3*I41*$C$45</f>
-        <v/>
-      </c>
-      <c r="J45" s="105">
-        <f>J3*J41*$C$45</f>
-        <v/>
-      </c>
-      <c r="K45" s="105">
-        <f>K3*K41*$C$45</f>
-        <v/>
-      </c>
-      <c r="L45" s="105">
-        <f>L3*L41*$C$45</f>
-        <v/>
-      </c>
-      <c r="M45" s="105">
-        <f>M3*M41*$C$45</f>
-        <v/>
-      </c>
-      <c r="N45" s="105">
-        <f>N3*N41*$C$45</f>
-        <v/>
-      </c>
-      <c r="O45" s="105">
-        <f>O3*O41*$C$45</f>
-        <v/>
+      <c r="D45" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="105" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G45" s="105" t="n">
+        <v>90</v>
+      </c>
+      <c r="H45" s="105" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="I45" s="105" t="n">
+        <v>90</v>
+      </c>
+      <c r="J45" s="105" t="n">
+        <v>90</v>
+      </c>
+      <c r="K45" s="105" t="n">
+        <v>90</v>
+      </c>
+      <c r="L45" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="M45" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="N45" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="O45" s="105" t="n">
+        <v>60</v>
       </c>
       <c r="P45" s="74" t="n"/>
-      <c r="Q45" s="88">
-        <f>SUM(Summary!$D45:$O45)</f>
-        <v/>
+      <c r="Q45" s="88" t="n">
+        <v>692.9</v>
       </c>
       <c r="R45" s="89" t="n"/>
       <c r="S45" s="106" t="n"/>
       <c r="T45" s="89" t="n"/>
     </row>
-    <row r="46" ht="23" customHeight="1" s="155">
-      <c r="B46" s="173" t="inlineStr">
+    <row r="46" ht="23" customFormat="1" customHeight="1" s="127">
+      <c r="B46" s="39" t="inlineStr">
         <is>
           <t>Retailer Total $(000)</t>
         </is>
       </c>
-      <c r="C46" s="173" t="n"/>
-      <c r="D46" s="174">
-        <f>SUM(D42:D45)</f>
-        <v/>
-      </c>
-      <c r="E46" s="174">
-        <f>SUM(E42:E45)</f>
-        <v/>
-      </c>
-      <c r="F46" s="174">
-        <f>SUM(F42:F45)</f>
-        <v/>
-      </c>
-      <c r="G46" s="174">
-        <f>SUM(G42:G45)</f>
-        <v/>
-      </c>
-      <c r="H46" s="174">
-        <f>SUM(H42:H45)</f>
-        <v/>
-      </c>
-      <c r="I46" s="174">
-        <f>SUM(I42:I45)</f>
-        <v/>
-      </c>
-      <c r="J46" s="174">
-        <f>SUM(J42:J45)</f>
-        <v/>
-      </c>
-      <c r="K46" s="174">
-        <f>SUM(K42:K45)</f>
-        <v/>
-      </c>
-      <c r="L46" s="174">
-        <f>SUM(L42:L45)</f>
-        <v/>
-      </c>
-      <c r="M46" s="174">
-        <f>SUM(M42:M45)</f>
-        <v/>
-      </c>
-      <c r="N46" s="174">
-        <f>SUM(N42:N45)</f>
-        <v/>
-      </c>
-      <c r="O46" s="174">
-        <f>SUM(O42:O45)</f>
-        <v/>
+      <c r="C46" s="39" t="n"/>
+      <c r="D46" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="E46" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="F46" s="91" t="n">
+        <v>912.5</v>
+      </c>
+      <c r="G46" s="91" t="n">
+        <v>990</v>
+      </c>
+      <c r="H46" s="91" t="n">
+        <v>980.4</v>
+      </c>
+      <c r="I46" s="91" t="n">
+        <v>990</v>
+      </c>
+      <c r="J46" s="91" t="n">
+        <v>990</v>
+      </c>
+      <c r="K46" s="91" t="n">
+        <v>990</v>
+      </c>
+      <c r="L46" s="91" t="n">
+        <v>960</v>
+      </c>
+      <c r="M46" s="91" t="n">
+        <v>960</v>
+      </c>
+      <c r="N46" s="91" t="n">
+        <v>960</v>
+      </c>
+      <c r="O46" s="91" t="n">
+        <v>960</v>
       </c>
       <c r="P46" s="126" t="n"/>
-      <c r="Q46" s="112">
-        <f>SUM(Q42:Q45)</f>
-        <v/>
+      <c r="Q46" s="112" t="n">
+        <v>11492.9</v>
       </c>
       <c r="R46" s="113" t="n"/>
       <c r="S46" s="114" t="n"/>
       <c r="T46" s="113" t="n"/>
     </row>
-    <row r="47" ht="27" customHeight="1" s="155">
-      <c r="B47" s="181" t="inlineStr">
+    <row r="47" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B47" s="129" t="inlineStr">
         <is>
           <t>CUSTOMER ACQUISITION &amp; RETENTION (CAR)</t>
         </is>
       </c>
-      <c r="C47" s="182" t="n"/>
+      <c r="C47" s="130" t="n"/>
       <c r="D47" s="66" t="n"/>
       <c r="E47" s="66" t="n"/>
       <c r="F47" s="66" t="n"/>
@@ -9427,7 +9130,7 @@
       <c r="S47" s="70" t="n"/>
       <c r="T47" s="69" t="n"/>
     </row>
-    <row r="48" ht="13" customHeight="1" s="155">
+    <row r="48" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B48" s="71" t="inlineStr">
         <is>
           <t>Human Resources</t>
@@ -9471,15 +9174,14 @@
         <v>50</v>
       </c>
       <c r="P48" s="74" t="n"/>
-      <c r="Q48" s="75">
-        <f>SUM(Summary!$D48:$O48)</f>
-        <v/>
+      <c r="Q48" s="75" t="n">
+        <v>600</v>
       </c>
       <c r="R48" s="76" t="n"/>
       <c r="S48" s="77" t="n"/>
       <c r="T48" s="76" t="n"/>
     </row>
-    <row r="49" ht="13" customHeight="1" s="155">
+    <row r="49" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B49" s="78" t="inlineStr">
         <is>
           <t>Communications</t>
@@ -9523,15 +9225,14 @@
         <v>250</v>
       </c>
       <c r="P49" s="81" t="n"/>
-      <c r="Q49" s="82">
-        <f>SUM(Summary!$D49:$O49)</f>
-        <v/>
+      <c r="Q49" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R49" s="83" t="n"/>
       <c r="S49" s="84" t="n"/>
       <c r="T49" s="83" t="n"/>
     </row>
-    <row r="50" ht="13" customHeight="1" s="155">
+    <row r="50" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B50" s="85" t="inlineStr">
         <is>
           <t>Promotions/Coupons</t>
@@ -9575,80 +9276,66 @@
         <v>600</v>
       </c>
       <c r="P50" s="74" t="n"/>
-      <c r="Q50" s="88">
-        <f>SUM(Summary!$D50:$O50)</f>
-        <v/>
+      <c r="Q50" s="88" t="n">
+        <v>7200</v>
       </c>
       <c r="R50" s="89" t="n"/>
       <c r="S50" s="106" t="n"/>
       <c r="T50" s="89" t="n"/>
     </row>
-    <row r="51" ht="24" customHeight="1" s="155">
-      <c r="B51" s="173" t="inlineStr">
+    <row r="51" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B51" s="39" t="inlineStr">
         <is>
           <t>CAR Total $(000)</t>
         </is>
       </c>
-      <c r="C51" s="173" t="n"/>
-      <c r="D51" s="174">
-        <f>SUM(D48:D50)</f>
-        <v/>
-      </c>
-      <c r="E51" s="174">
-        <f>SUM(E48:E50)</f>
-        <v/>
-      </c>
-      <c r="F51" s="174">
-        <f>SUM(F48:F50)</f>
-        <v/>
-      </c>
-      <c r="G51" s="174">
-        <f>SUM(G48:G50)</f>
-        <v/>
-      </c>
-      <c r="H51" s="174">
-        <f>SUM(H48:H50)</f>
-        <v/>
-      </c>
-      <c r="I51" s="174">
-        <f>SUM(I48:I50)</f>
-        <v/>
-      </c>
-      <c r="J51" s="174">
-        <f>SUM(J48:J50)</f>
-        <v/>
-      </c>
-      <c r="K51" s="174">
-        <f>SUM(K48:K50)</f>
-        <v/>
-      </c>
-      <c r="L51" s="174">
-        <f>SUM(L48:L50)</f>
-        <v/>
-      </c>
-      <c r="M51" s="174">
-        <f>SUM(M48:M50)</f>
-        <v/>
-      </c>
-      <c r="N51" s="174">
-        <f>SUM(N48:N50)</f>
-        <v/>
-      </c>
-      <c r="O51" s="174">
-        <f>SUM(O48:O50)</f>
-        <v/>
+      <c r="C51" s="39" t="n"/>
+      <c r="D51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="E51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="F51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="G51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="H51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="I51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="J51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="K51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="L51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="M51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="N51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="O51" s="91" t="n">
+        <v>900</v>
       </c>
       <c r="P51" s="126" t="n"/>
-      <c r="Q51" s="112">
-        <f>SUM(Q48:Q50)</f>
-        <v/>
+      <c r="Q51" s="112" t="n">
+        <v>10800</v>
       </c>
       <c r="R51" s="113" t="n"/>
       <c r="S51" s="114" t="n"/>
       <c r="T51" s="113" t="n"/>
     </row>
-    <row r="52" ht="27" customHeight="1" s="155">
-      <c r="B52" s="175" t="inlineStr">
+    <row r="52" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B52" s="96" t="inlineStr">
         <is>
           <t>OTHER EXPENSES</t>
         </is>
@@ -9672,7 +9359,7 @@
       <c r="S52" s="70" t="n"/>
       <c r="T52" s="69" t="n"/>
     </row>
-    <row r="53" ht="13" customHeight="1" s="155">
+    <row r="53" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B53" s="71" t="inlineStr">
         <is>
           <t>Travel</t>
@@ -9716,15 +9403,14 @@
         <v>50</v>
       </c>
       <c r="P53" s="74" t="n"/>
-      <c r="Q53" s="118">
-        <f>SUM(Summary!$D53:$O53)</f>
-        <v/>
+      <c r="Q53" s="118" t="n">
+        <v>600</v>
       </c>
       <c r="R53" s="119" t="n"/>
       <c r="S53" s="120" t="n"/>
       <c r="T53" s="119" t="n"/>
     </row>
-    <row r="54" ht="13" customHeight="1" s="155">
+    <row r="54" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B54" s="78" t="inlineStr">
         <is>
           <t>Infrastructure (computer, telephone, etc.)</t>
@@ -9768,15 +9454,14 @@
         <v>250</v>
       </c>
       <c r="P54" s="81" t="n"/>
-      <c r="Q54" s="82">
-        <f>SUM(Summary!$D54:$O54)</f>
-        <v/>
+      <c r="Q54" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R54" s="83" t="n"/>
       <c r="S54" s="84" t="n"/>
       <c r="T54" s="83" t="n"/>
     </row>
-    <row r="55" ht="13" customHeight="1" s="155">
+    <row r="55" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B55" s="85" t="inlineStr">
         <is>
           <t>Channel Support</t>
@@ -9820,79 +9505,65 @@
         <v>600</v>
       </c>
       <c r="P55" s="74" t="n"/>
-      <c r="Q55" s="88">
-        <f>SUM(Summary!$D55:$O55)</f>
-        <v/>
+      <c r="Q55" s="88" t="n">
+        <v>7200</v>
       </c>
       <c r="R55" s="89" t="n"/>
       <c r="S55" s="106" t="n"/>
       <c r="T55" s="89" t="n"/>
     </row>
-    <row r="56" ht="23" customHeight="1" s="155">
-      <c r="B56" s="173" t="inlineStr">
+    <row r="56" ht="23" customFormat="1" customHeight="1" s="127">
+      <c r="B56" s="39" t="inlineStr">
         <is>
           <t>Other Expenses Total $(000)</t>
         </is>
       </c>
-      <c r="C56" s="173" t="n"/>
-      <c r="D56" s="174">
-        <f>SUM(D53:D55)</f>
-        <v/>
-      </c>
-      <c r="E56" s="174">
-        <f>SUM(E53:E55)</f>
-        <v/>
-      </c>
-      <c r="F56" s="174">
-        <f>SUM(F53:F55)</f>
-        <v/>
-      </c>
-      <c r="G56" s="174">
-        <f>SUM(G53:G55)</f>
-        <v/>
-      </c>
-      <c r="H56" s="174">
-        <f>SUM(H53:H55)</f>
-        <v/>
-      </c>
-      <c r="I56" s="174">
-        <f>SUM(I53:I55)</f>
-        <v/>
-      </c>
-      <c r="J56" s="174">
-        <f>SUM(J53:J55)</f>
-        <v/>
-      </c>
-      <c r="K56" s="174">
-        <f>SUM(K53:K55)</f>
-        <v/>
-      </c>
-      <c r="L56" s="174">
-        <f>SUM(L53:L55)</f>
-        <v/>
-      </c>
-      <c r="M56" s="174">
-        <f>SUM(M53:M55)</f>
-        <v/>
-      </c>
-      <c r="N56" s="174">
-        <f>SUM(N53:N55)</f>
-        <v/>
-      </c>
-      <c r="O56" s="174">
-        <f>SUM(O53:O55)</f>
-        <v/>
+      <c r="C56" s="39" t="n"/>
+      <c r="D56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="E56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="F56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="G56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="H56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="I56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="J56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="K56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="L56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="M56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="N56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="O56" s="91" t="n">
+        <v>900</v>
       </c>
       <c r="P56" s="126" t="n"/>
-      <c r="Q56" s="112">
-        <f>SUM(Q53:Q55)</f>
-        <v/>
+      <c r="Q56" s="112" t="n">
+        <v>10800</v>
       </c>
       <c r="R56" s="113" t="n"/>
       <c r="S56" s="114" t="n"/>
       <c r="T56" s="113" t="n"/>
     </row>
-    <row r="57" ht="15" customHeight="1" s="155">
+    <row r="57" ht="15" customHeight="1" s="155" thickBot="1">
       <c r="D57" s="47" t="n"/>
       <c r="E57" s="47" t="n"/>
       <c r="F57" s="47" t="n"/>
@@ -9911,72 +9582,59 @@
       <c r="S57" s="133" t="n"/>
       <c r="T57" s="132" t="n"/>
     </row>
-    <row r="58" ht="20" customHeight="1" s="155">
+    <row r="58" ht="20" customFormat="1" customHeight="1" s="127" thickTop="1">
       <c r="B58" s="134" t="inlineStr">
         <is>
           <t>TOTAL MARKETING BUDGET:</t>
         </is>
       </c>
       <c r="C58" s="135" t="n"/>
-      <c r="D58" s="136">
-        <f>SUM(D8,D27,D34,D40,D46,D51,D56)</f>
-        <v/>
-      </c>
-      <c r="E58" s="136">
-        <f>SUM(E8,E27,E34,E40,E46,E51,E56)</f>
-        <v/>
-      </c>
-      <c r="F58" s="136">
-        <f>SUM(F8,F27,F34,F40,F46,F51,F56)</f>
-        <v/>
-      </c>
-      <c r="G58" s="136">
-        <f>SUM(G8,G27,G34,G40,G46,G51,G56)</f>
-        <v/>
-      </c>
-      <c r="H58" s="136">
-        <f>SUM(H8,H27,H34,H40,H46,H51,H56)</f>
-        <v/>
-      </c>
-      <c r="I58" s="136">
-        <f>SUM(I8,I27,I34,I40,I46,I51,I56)</f>
-        <v/>
-      </c>
-      <c r="J58" s="136">
-        <f>SUM(J8,J27,J34,J40,J46,J51,J56)</f>
-        <v/>
-      </c>
-      <c r="K58" s="136">
-        <f>SUM(K8,K27,K34,K40,K46,K51,K56)</f>
-        <v/>
-      </c>
-      <c r="L58" s="136">
-        <f>SUM(L8,L27,L34,L40,L46,L51,L56)</f>
-        <v/>
-      </c>
-      <c r="M58" s="136">
-        <f>SUM(M8,M27,M34,M40,M46,M51,M56)</f>
-        <v/>
-      </c>
-      <c r="N58" s="136">
-        <f>SUM(N8,N27,N34,N40,N46,N51,N56)</f>
-        <v/>
-      </c>
-      <c r="O58" s="136">
-        <f>SUM(O8,O27,O34,O40,O46,O51,O56)</f>
-        <v/>
+      <c r="D58" s="136" t="n">
+        <v>6379.75</v>
+      </c>
+      <c r="E58" s="136" t="n">
+        <v>5811.05</v>
+      </c>
+      <c r="F58" s="136" t="n">
+        <v>5859.9375</v>
+      </c>
+      <c r="G58" s="136" t="n">
+        <v>5928.55</v>
+      </c>
+      <c r="H58" s="136" t="n">
+        <v>5942.548</v>
+      </c>
+      <c r="I58" s="136" t="n">
+        <v>5962.1875</v>
+      </c>
+      <c r="J58" s="136" t="n">
+        <v>6003.4</v>
+      </c>
+      <c r="K58" s="136" t="n">
+        <v>6042.639999999999</v>
+      </c>
+      <c r="L58" s="136" t="n">
+        <v>6058.8</v>
+      </c>
+      <c r="M58" s="136" t="n">
+        <v>6028.8</v>
+      </c>
+      <c r="N58" s="136" t="n">
+        <v>6083.8</v>
+      </c>
+      <c r="O58" s="136" t="n">
+        <v>6028.8</v>
       </c>
       <c r="P58" s="126" t="n"/>
-      <c r="Q58" s="137">
-        <f>SUM(Q8,Q27,Q34,Q40,Q46,Q51,Q56)</f>
-        <v/>
+      <c r="Q58" s="137" t="n">
+        <v>72130.26300000001</v>
       </c>
       <c r="R58" s="138" t="n"/>
       <c r="S58" s="114" t="n"/>
       <c r="T58" s="138" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9992,22 +9650,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="2" customWidth="1" style="155" min="1" max="1"/>
-    <col width="35.6640625" customWidth="1" style="155" min="2" max="2"/>
-    <col width="8" customWidth="1" style="155" min="3" max="3"/>
-    <col width="14.33203125" customWidth="1" style="155" min="4" max="4"/>
-    <col width="0.6640625" customWidth="1" style="155" min="16" max="16"/>
-    <col width="14.33203125" customWidth="1" style="155" min="17" max="17"/>
-    <col width="2.1640625" customWidth="1" style="155" min="18" max="18"/>
-    <col width="10.33203125" customWidth="1" style="155" min="19" max="19"/>
-    <col width="2.1640625" customWidth="1" style="155" min="20" max="20"/>
-    <col width="8.83203125" customWidth="1" style="155" min="21" max="21"/>
+    <col width="2" customWidth="1" style="44" min="1" max="1"/>
+    <col width="35.6640625" customWidth="1" style="44" min="2" max="2"/>
+    <col width="8" customWidth="1" style="46" min="3" max="3"/>
+    <col width="14.33203125" customWidth="1" style="46" min="4" max="15"/>
+    <col width="0.6640625" customWidth="1" style="46" min="16" max="16"/>
+    <col width="14.33203125" customWidth="1" style="46" min="17" max="17"/>
+    <col width="2.1640625" customWidth="1" style="44" min="18" max="18"/>
+    <col width="10.33203125" customWidth="1" style="44" min="19" max="19"/>
+    <col width="2.1640625" customWidth="1" style="44" min="20" max="20"/>
+    <col width="8.83203125" customWidth="1" style="44" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" s="155">
-      <c r="B1" s="171" t="inlineStr">
+      <c r="B1" s="45" t="inlineStr">
         <is>
           <t>CHANNEL MARKETING BUDGET</t>
         </is>
@@ -10029,7 +9687,7 @@
       <c r="R1" s="48" t="n"/>
       <c r="T1" s="48" t="n"/>
     </row>
-    <row r="2" ht="15" customHeight="1" s="155">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="49" thickBot="1">
       <c r="B2" s="50" t="n"/>
       <c r="C2" s="51" t="inlineStr">
         <is>
@@ -10106,7 +9764,7 @@
       <c r="S2" s="56" t="n"/>
       <c r="T2" s="55" t="n"/>
     </row>
-    <row r="3" ht="19" customHeight="1" s="155">
+    <row r="3" ht="19" customFormat="1" customHeight="1" s="57" thickTop="1">
       <c r="B3" s="57" t="inlineStr">
         <is>
           <t>ANTICIPATED SALES TOTAL $(000)</t>
@@ -10150,68 +9808,55 @@
         <v>2000</v>
       </c>
       <c r="P3" s="59" t="n"/>
-      <c r="Q3" s="60">
-        <f>SUM(D3:O3)</f>
-        <v/>
+      <c r="Q3" s="60" t="n">
+        <v>17200</v>
       </c>
       <c r="R3" s="61" t="n"/>
       <c r="S3" s="62" t="n"/>
       <c r="T3" s="61" t="n"/>
     </row>
-    <row r="4" ht="27" customHeight="1" s="155">
-      <c r="B4" s="172" t="inlineStr">
+    <row r="4" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>PERSONNEL (% OF TOTAL SALES)</t>
         </is>
       </c>
       <c r="C4" s="65" t="n"/>
-      <c r="D4" s="66">
-        <f>D9+D28+D35+D41</f>
-        <v/>
-      </c>
-      <c r="E4" s="66">
-        <f>E9+E28+E35+E41</f>
-        <v/>
-      </c>
-      <c r="F4" s="66">
-        <f>F9+F28+F35+F41</f>
-        <v/>
-      </c>
-      <c r="G4" s="66">
-        <f>G9+G28+G35+G41</f>
-        <v/>
-      </c>
-      <c r="H4" s="66">
-        <f>H9+H28+H35+H41</f>
-        <v/>
-      </c>
-      <c r="I4" s="66">
-        <f>I9+I28+I35+I41</f>
-        <v/>
-      </c>
-      <c r="J4" s="66">
-        <f>J9+J28+J35+J41</f>
-        <v/>
-      </c>
-      <c r="K4" s="66">
-        <f>K9+K28+K35+K41</f>
-        <v/>
-      </c>
-      <c r="L4" s="66">
-        <f>L9+L28+L35+L41</f>
-        <v/>
-      </c>
-      <c r="M4" s="66">
-        <f>M9+M28+M35+M41</f>
-        <v/>
-      </c>
-      <c r="N4" s="66">
-        <f>N9+N28+N35+N41</f>
-        <v/>
-      </c>
-      <c r="O4" s="66">
-        <f>O9+O28+O35+O41</f>
-        <v/>
+      <c r="D4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K4" s="66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L4" s="66" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="M4" s="66" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="N4" s="66" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="O4" s="66" t="n">
+        <v>0.8500000000000001</v>
       </c>
       <c r="P4" s="67" t="n"/>
       <c r="Q4" s="68" t="n"/>
@@ -10219,7 +9864,7 @@
       <c r="S4" s="70" t="n"/>
       <c r="T4" s="69" t="n"/>
     </row>
-    <row r="5" ht="13" customHeight="1" s="155">
+    <row r="5" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B5" s="71" t="inlineStr">
         <is>
           <t>Human Resources - Headcount</t>
@@ -10228,53 +9873,41 @@
       <c r="C5" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="E5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="F5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="G5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="H5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="I5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="J5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="K5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="L5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="M5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="N5" s="73">
-        <f>+$C$5</f>
-        <v/>
-      </c>
-      <c r="O5" s="73">
-        <f>+$C$5</f>
-        <v/>
+      <c r="D5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" s="73" t="n">
+        <v>5</v>
       </c>
       <c r="P5" s="74" t="n"/>
       <c r="Q5" s="75" t="n"/>
@@ -10282,71 +9915,58 @@
       <c r="S5" s="77" t="n"/>
       <c r="T5" s="76" t="n"/>
     </row>
-    <row r="6" ht="13" customHeight="1" s="155">
+    <row r="6" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B6" s="78" t="inlineStr">
         <is>
           <t>Human Resources - Cost</t>
         </is>
       </c>
       <c r="C6" s="79" t="n"/>
-      <c r="D6" s="80">
-        <f>$C$5*D5</f>
-        <v/>
-      </c>
-      <c r="E6" s="80">
-        <f>$C$5*E5</f>
-        <v/>
-      </c>
-      <c r="F6" s="80">
-        <f>$C$5*F5</f>
-        <v/>
-      </c>
-      <c r="G6" s="80">
-        <f>$C$5*G5</f>
-        <v/>
-      </c>
-      <c r="H6" s="80">
-        <f>$C$5*H5</f>
-        <v/>
-      </c>
-      <c r="I6" s="80">
-        <f>$C$5*I5</f>
-        <v/>
-      </c>
-      <c r="J6" s="80">
-        <f>$C$5*J5</f>
-        <v/>
-      </c>
-      <c r="K6" s="80">
-        <f>$C$5*K5</f>
-        <v/>
-      </c>
-      <c r="L6" s="80">
-        <f>$C$5*L5</f>
-        <v/>
-      </c>
-      <c r="M6" s="80">
-        <f>$C$5*M5</f>
-        <v/>
-      </c>
-      <c r="N6" s="80">
-        <f>$C$5*N5</f>
-        <v/>
-      </c>
-      <c r="O6" s="80">
-        <f>$C$5*O5</f>
-        <v/>
+      <c r="D6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="H6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="J6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="K6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="L6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="M6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="N6" s="80" t="n">
+        <v>25</v>
+      </c>
+      <c r="O6" s="80" t="n">
+        <v>25</v>
       </c>
       <c r="P6" s="81" t="n"/>
-      <c r="Q6" s="82">
-        <f>SUM(Summary!$D6:$O6)</f>
-        <v/>
+      <c r="Q6" s="82" t="n">
+        <v>300</v>
       </c>
       <c r="R6" s="83" t="n"/>
       <c r="S6" s="84" t="n"/>
       <c r="T6" s="83" t="n"/>
     </row>
-    <row r="7" ht="13" customHeight="1" s="155">
+    <row r="7" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B7" s="85" t="inlineStr">
         <is>
           <t>Commission</t>
@@ -10355,129 +9975,103 @@
       <c r="C7" s="86" t="n">
         <v>0.001</v>
       </c>
-      <c r="D7" s="87">
-        <f>D3*$C$7</f>
-        <v/>
-      </c>
-      <c r="E7" s="87">
-        <f>E3*$C$7</f>
-        <v/>
-      </c>
-      <c r="F7" s="87">
-        <f>F3*$C$7</f>
-        <v/>
-      </c>
-      <c r="G7" s="87">
-        <f>G3*$C$7</f>
-        <v/>
-      </c>
-      <c r="H7" s="87">
-        <f>H3*$C$7</f>
-        <v/>
-      </c>
-      <c r="I7" s="87">
-        <f>I3*$C$7</f>
-        <v/>
-      </c>
-      <c r="J7" s="87">
-        <f>J3*$C$7</f>
-        <v/>
-      </c>
-      <c r="K7" s="87">
-        <f>K3*$C$7</f>
-        <v/>
-      </c>
-      <c r="L7" s="87">
-        <f>L3*$C$7</f>
-        <v/>
-      </c>
-      <c r="M7" s="87">
-        <f>M3*$C$7</f>
-        <v/>
-      </c>
-      <c r="N7" s="87">
-        <f>N3*$C$7</f>
-        <v/>
-      </c>
-      <c r="O7" s="87">
-        <f>O3*$C$7</f>
-        <v/>
+      <c r="D7" s="87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L7" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="87" t="n">
+        <v>2</v>
       </c>
       <c r="P7" s="81" t="n"/>
-      <c r="Q7" s="88">
-        <f>SUM(Summary!$D7:$O7)</f>
-        <v/>
+      <c r="Q7" s="88" t="n">
+        <v>17.2</v>
       </c>
       <c r="R7" s="89" t="n"/>
       <c r="S7" s="90" t="n"/>
       <c r="T7" s="89" t="n"/>
     </row>
-    <row r="8" ht="24" customHeight="1" s="155">
-      <c r="B8" s="173" t="inlineStr">
+    <row r="8" ht="24" customHeight="1" s="155" thickBot="1">
+      <c r="B8" s="39" t="inlineStr">
         <is>
           <t>Personnel Total $(000)</t>
         </is>
       </c>
-      <c r="C8" s="173" t="n"/>
-      <c r="D8" s="174">
-        <f>SUM(D6:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="174">
-        <f>SUM(E6:E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="174">
-        <f>SUM(F6:F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="174">
-        <f>SUM(G6:G7)</f>
-        <v/>
-      </c>
-      <c r="H8" s="174">
-        <f>SUM(H6:H7)</f>
-        <v/>
-      </c>
-      <c r="I8" s="174">
-        <f>SUM(I6:I7)</f>
-        <v/>
-      </c>
-      <c r="J8" s="174">
-        <f>SUM(J6:J7)</f>
-        <v/>
-      </c>
-      <c r="K8" s="174">
-        <f>SUM(K6:K7)</f>
-        <v/>
-      </c>
-      <c r="L8" s="174">
-        <f>SUM(L6:L7)</f>
-        <v/>
-      </c>
-      <c r="M8" s="174">
-        <f>SUM(M6:M7)</f>
-        <v/>
-      </c>
-      <c r="N8" s="174">
-        <f>SUM(N6:N7)</f>
-        <v/>
-      </c>
-      <c r="O8" s="174">
-        <f>SUM(O6:O7)</f>
-        <v/>
+      <c r="C8" s="39" t="n"/>
+      <c r="D8" s="91" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E8" s="91" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F8" s="91" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G8" s="91" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="H8" s="91" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I8" s="91" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J8" s="91" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K8" s="91" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="L8" s="91" t="n">
+        <v>27</v>
+      </c>
+      <c r="M8" s="91" t="n">
+        <v>27</v>
+      </c>
+      <c r="N8" s="91" t="n">
+        <v>27</v>
+      </c>
+      <c r="O8" s="91" t="n">
+        <v>27</v>
       </c>
       <c r="P8" s="92" t="n"/>
-      <c r="Q8" s="93">
-        <f>SUM(Summary!$D8:$O8)</f>
-        <v/>
+      <c r="Q8" s="93" t="n">
+        <v>317.2</v>
       </c>
       <c r="R8" s="94" t="n"/>
       <c r="S8" s="95" t="n"/>
       <c r="T8" s="94" t="n"/>
     </row>
-    <row r="9" ht="27" customHeight="1" s="155">
-      <c r="B9" s="175" t="inlineStr">
+    <row r="9" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B9" s="96" t="inlineStr">
         <is>
           <t>DIRECT MARKETING (% OF TOTAL SALES)</t>
         </is>
@@ -10525,7 +10119,7 @@
       <c r="S9" s="70" t="n"/>
       <c r="T9" s="69" t="n"/>
     </row>
-    <row r="10" ht="13" customHeight="1" s="155">
+    <row r="10" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B10" s="71" t="inlineStr">
         <is>
           <t>Telemarketing (% of Direct Sales)</t>
@@ -10574,7 +10168,7 @@
       <c r="S10" s="77" t="n"/>
       <c r="T10" s="76" t="n"/>
     </row>
-    <row r="11" ht="13" customHeight="1" s="155">
+    <row r="11" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B11" s="99" t="inlineStr">
         <is>
           <t>Human Resources - Headcount</t>
@@ -10583,64 +10177,51 @@
       <c r="C11" s="100" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="79">
-        <f>$C$11*D10</f>
-        <v/>
-      </c>
-      <c r="E11" s="79">
-        <f>$C$11*E10</f>
-        <v/>
-      </c>
-      <c r="F11" s="79">
-        <f>$C$11*F10</f>
-        <v/>
-      </c>
-      <c r="G11" s="79">
-        <f>$C$11*G10</f>
-        <v/>
-      </c>
-      <c r="H11" s="79">
-        <f>$C$11*H10</f>
-        <v/>
-      </c>
-      <c r="I11" s="79">
-        <f>$C$11*I10</f>
-        <v/>
-      </c>
-      <c r="J11" s="79">
-        <f>$C$11*J10</f>
-        <v/>
-      </c>
-      <c r="K11" s="79">
-        <f>$C$11*K10</f>
-        <v/>
-      </c>
-      <c r="L11" s="79">
-        <f>$C$11*L10</f>
-        <v/>
-      </c>
-      <c r="M11" s="79">
-        <f>$C$11*M10</f>
-        <v/>
-      </c>
-      <c r="N11" s="79">
-        <f>$C$11*N10</f>
-        <v/>
-      </c>
-      <c r="O11" s="101">
-        <f>$C$11*O10</f>
-        <v/>
+      <c r="D11" s="79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N11" s="79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="101" t="n">
+        <v>1.5</v>
       </c>
       <c r="P11" s="74" t="n"/>
-      <c r="Q11" s="82">
-        <f>SUM(Summary!$D11:$O11)</f>
-        <v/>
+      <c r="Q11" s="82" t="n">
+        <v>19.5</v>
       </c>
       <c r="R11" s="83" t="n"/>
       <c r="S11" s="102" t="n"/>
       <c r="T11" s="83" t="n"/>
     </row>
-    <row r="12" ht="13" customHeight="1" s="155">
+    <row r="12" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B12" s="99" t="inlineStr">
         <is>
           <t>Infrastructure Support</t>
@@ -10684,15 +10265,14 @@
         <v>10</v>
       </c>
       <c r="P12" s="74" t="n"/>
-      <c r="Q12" s="82">
-        <f>SUM(Summary!$D12:$O12)</f>
-        <v/>
+      <c r="Q12" s="82" t="n">
+        <v>210</v>
       </c>
       <c r="R12" s="83" t="n"/>
       <c r="S12" s="102" t="n"/>
       <c r="T12" s="83" t="n"/>
     </row>
-    <row r="13" ht="13" customHeight="1" s="155">
+    <row r="13" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B13" s="99" t="inlineStr">
         <is>
           <t>Commission</t>
@@ -10701,64 +10281,51 @@
       <c r="C13" s="103" t="n">
         <v>0.001</v>
       </c>
-      <c r="D13" s="80">
-        <f>$C$13*D3*D9*D10</f>
-        <v/>
-      </c>
-      <c r="E13" s="80">
-        <f>$C$13*E3*E9*E10</f>
-        <v/>
-      </c>
-      <c r="F13" s="80">
-        <f>$C$13*F3*F9*F10</f>
-        <v/>
-      </c>
-      <c r="G13" s="80">
-        <f>$C$13*G3*G9*G10</f>
-        <v/>
-      </c>
-      <c r="H13" s="80">
-        <f>$C$13*H3*H9*H10</f>
-        <v/>
-      </c>
-      <c r="I13" s="80">
-        <f>$C$13*I3*I9*I10</f>
-        <v/>
-      </c>
-      <c r="J13" s="80">
-        <f>$C$13*J3*J9*J10</f>
-        <v/>
-      </c>
-      <c r="K13" s="80">
-        <f>$C$13*K3*K9*K10</f>
-        <v/>
-      </c>
-      <c r="L13" s="80">
-        <f>$C$13*L3*L9*L10</f>
-        <v/>
-      </c>
-      <c r="M13" s="80">
-        <f>$C$13*M3*M9*M10</f>
-        <v/>
-      </c>
-      <c r="N13" s="80">
-        <f>$C$13*N3*N9*N10</f>
-        <v/>
-      </c>
-      <c r="O13" s="80">
-        <f>$C$13*O3*O9*O10</f>
-        <v/>
+      <c r="D13" s="80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="80" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H13" s="80" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="I13" s="80" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="J13" s="80" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K13" s="80" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="L13" s="80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N13" s="80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="80" t="n">
+        <v>0.05</v>
       </c>
       <c r="P13" s="74" t="n"/>
-      <c r="Q13" s="82">
-        <f>SUM(Summary!$D13:$O13)</f>
-        <v/>
+      <c r="Q13" s="82" t="n">
+        <v>2.485499999999999</v>
       </c>
       <c r="R13" s="83" t="n"/>
       <c r="S13" s="102" t="n"/>
       <c r="T13" s="83" t="n"/>
     </row>
-    <row r="14" ht="13" customHeight="1" s="155">
+    <row r="14" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B14" s="104" t="inlineStr">
         <is>
           <t>Training</t>
@@ -10802,79 +10369,65 @@
         <v>10</v>
       </c>
       <c r="P14" s="74" t="n"/>
-      <c r="Q14" s="88">
-        <f>SUM(Summary!$D14:$O14)</f>
-        <v/>
+      <c r="Q14" s="88" t="n">
+        <v>210</v>
       </c>
       <c r="R14" s="89" t="n"/>
       <c r="S14" s="106" t="n"/>
       <c r="T14" s="89" t="n"/>
     </row>
-    <row r="15" ht="19" customHeight="1" s="155">
-      <c r="B15" s="176" t="inlineStr">
+    <row r="15" ht="19" customFormat="1" customHeight="1" s="107">
+      <c r="B15" s="108" t="inlineStr">
         <is>
           <t>Telemarketing Total $(000)</t>
         </is>
       </c>
-      <c r="C15" s="177" t="n"/>
-      <c r="D15" s="178">
-        <f>SUM(D11:D14)</f>
-        <v/>
-      </c>
-      <c r="E15" s="178">
-        <f>SUM(E11:E14)</f>
-        <v/>
-      </c>
-      <c r="F15" s="178">
-        <f>SUM(F11:F14)</f>
-        <v/>
-      </c>
-      <c r="G15" s="178">
-        <f>SUM(G11:G14)</f>
-        <v/>
-      </c>
-      <c r="H15" s="178">
-        <f>SUM(H11:H14)</f>
-        <v/>
-      </c>
-      <c r="I15" s="178">
-        <f>SUM(I11:I14)</f>
-        <v/>
-      </c>
-      <c r="J15" s="178">
-        <f>SUM(J11:J14)</f>
-        <v/>
-      </c>
-      <c r="K15" s="178">
-        <f>SUM(K11:K14)</f>
-        <v/>
-      </c>
-      <c r="L15" s="178">
-        <f>SUM(L11:L14)</f>
-        <v/>
-      </c>
-      <c r="M15" s="178">
-        <f>SUM(M11:M14)</f>
-        <v/>
-      </c>
-      <c r="N15" s="178">
-        <f>SUM(N11:N14)</f>
-        <v/>
-      </c>
-      <c r="O15" s="178">
-        <f>SUM(O11:O14)</f>
-        <v/>
+      <c r="C15" s="109" t="n"/>
+      <c r="D15" s="110" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="E15" s="110" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F15" s="110" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="G15" s="110" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="H15" s="110" t="n">
+        <v>51.698</v>
+      </c>
+      <c r="I15" s="110" t="n">
+        <v>21.6875</v>
+      </c>
+      <c r="J15" s="110" t="n">
+        <v>51.65</v>
+      </c>
+      <c r="K15" s="110" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="L15" s="110" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="M15" s="110" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="N15" s="110" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="O15" s="110" t="n">
+        <v>21.55</v>
       </c>
       <c r="P15" s="111" t="n"/>
-      <c r="Q15" s="112">
-        <f>SUM(Summary!$D15:$O15)</f>
-        <v/>
+      <c r="Q15" s="112" t="n">
+        <v>441.9855</v>
       </c>
       <c r="R15" s="113" t="n"/>
       <c r="S15" s="114" t="n"/>
       <c r="T15" s="113" t="n"/>
     </row>
-    <row r="16" ht="13" customHeight="1" s="155">
+    <row r="16" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B16" s="115" t="inlineStr">
         <is>
           <t>Internet Marketing (% of Direct Sales)</t>
@@ -10923,7 +10476,7 @@
       <c r="S16" s="120" t="n"/>
       <c r="T16" s="119" t="n"/>
     </row>
-    <row r="17" ht="13" customHeight="1" s="155">
+    <row r="17" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B17" s="99" t="inlineStr">
         <is>
           <t>Human Resources - Headcount</t>
@@ -10932,64 +10485,51 @@
       <c r="C17" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="79">
-        <f>$C$17*D16</f>
-        <v/>
-      </c>
-      <c r="E17" s="79">
-        <f>$C$17*E16</f>
-        <v/>
-      </c>
-      <c r="F17" s="79">
-        <f>$C$17*F16</f>
-        <v/>
-      </c>
-      <c r="G17" s="79">
-        <f>$C$17*G16</f>
-        <v/>
-      </c>
-      <c r="H17" s="79">
-        <f>$C$17*H16</f>
-        <v/>
-      </c>
-      <c r="I17" s="79">
-        <f>$C$17*I16</f>
-        <v/>
-      </c>
-      <c r="J17" s="79">
-        <f>$C$17*J16</f>
-        <v/>
-      </c>
-      <c r="K17" s="79">
-        <f>$C$17*K16</f>
-        <v/>
-      </c>
-      <c r="L17" s="79">
-        <f>$C$17*L16</f>
-        <v/>
-      </c>
-      <c r="M17" s="79">
-        <f>$C$17*M16</f>
-        <v/>
-      </c>
-      <c r="N17" s="79">
-        <f>$C$17*N16</f>
-        <v/>
-      </c>
-      <c r="O17" s="101">
-        <f>$C$17*O16</f>
-        <v/>
+      <c r="D17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N17" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="101" t="n">
+        <v>0.25</v>
       </c>
       <c r="P17" s="74" t="n"/>
-      <c r="Q17" s="82">
-        <f>SUM(Summary!$D17:$O17)</f>
-        <v/>
+      <c r="Q17" s="82" t="n">
+        <v>3</v>
       </c>
       <c r="R17" s="83" t="n"/>
       <c r="S17" s="102" t="n"/>
       <c r="T17" s="83" t="n"/>
     </row>
-    <row r="18" ht="13" customHeight="1" s="155">
+    <row r="18" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B18" s="99" t="inlineStr">
         <is>
           <t>Website Development (one-time cost)</t>
@@ -11011,15 +10551,14 @@
       <c r="N18" s="100" t="n"/>
       <c r="O18" s="100" t="n"/>
       <c r="P18" s="74" t="n"/>
-      <c r="Q18" s="82">
-        <f>SUM(Summary!$D18:$O18)</f>
-        <v/>
+      <c r="Q18" s="82" t="n">
+        <v>500</v>
       </c>
       <c r="R18" s="83" t="n"/>
       <c r="S18" s="102" t="n"/>
       <c r="T18" s="83" t="n"/>
     </row>
-    <row r="19" ht="13" customHeight="1" s="155">
+    <row r="19" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B19" s="99" t="inlineStr">
         <is>
           <t>Hosting</t>
@@ -11063,15 +10602,14 @@
         <v>10</v>
       </c>
       <c r="P19" s="74" t="n"/>
-      <c r="Q19" s="82">
-        <f>SUM(Summary!$D19:$O19)</f>
-        <v/>
+      <c r="Q19" s="82" t="n">
+        <v>120</v>
       </c>
       <c r="R19" s="83" t="n"/>
       <c r="S19" s="102" t="n"/>
       <c r="T19" s="83" t="n"/>
     </row>
-    <row r="20" ht="13" customHeight="1" s="155">
+    <row r="20" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B20" s="104" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
@@ -11095,79 +10633,65 @@
       </c>
       <c r="O20" s="121" t="n"/>
       <c r="P20" s="74" t="n"/>
-      <c r="Q20" s="88">
-        <f>SUM(Summary!$D20:$O20)</f>
-        <v/>
+      <c r="Q20" s="88" t="n">
+        <v>50</v>
       </c>
       <c r="R20" s="89" t="n"/>
       <c r="S20" s="106" t="n"/>
       <c r="T20" s="89" t="n"/>
     </row>
-    <row r="21" ht="19" customHeight="1" s="155">
-      <c r="B21" s="176" t="inlineStr">
+    <row r="21" ht="19" customFormat="1" customHeight="1" s="107">
+      <c r="B21" s="108" t="inlineStr">
         <is>
           <t>Internet Marketing Total $(000)</t>
         </is>
       </c>
-      <c r="C21" s="176" t="n"/>
-      <c r="D21" s="179">
-        <f>SUM(D17:D20)</f>
-        <v/>
-      </c>
-      <c r="E21" s="179">
-        <f>SUM(E17:E20)</f>
-        <v/>
-      </c>
-      <c r="F21" s="179">
-        <f>SUM(F17:F20)</f>
-        <v/>
-      </c>
-      <c r="G21" s="179">
-        <f>SUM(G17:G20)</f>
-        <v/>
-      </c>
-      <c r="H21" s="179">
-        <f>SUM(H17:H20)</f>
-        <v/>
-      </c>
-      <c r="I21" s="179">
-        <f>SUM(I17:I20)</f>
-        <v/>
-      </c>
-      <c r="J21" s="179">
-        <f>SUM(J17:J20)</f>
-        <v/>
-      </c>
-      <c r="K21" s="179">
-        <f>SUM(K17:K20)</f>
-        <v/>
-      </c>
-      <c r="L21" s="179">
-        <f>SUM(L17:L20)</f>
-        <v/>
-      </c>
-      <c r="M21" s="179">
-        <f>SUM(M17:M20)</f>
-        <v/>
-      </c>
-      <c r="N21" s="179">
-        <f>SUM(N17:N20)</f>
-        <v/>
-      </c>
-      <c r="O21" s="179">
-        <f>SUM(O17:O20)</f>
-        <v/>
+      <c r="C21" s="108" t="n"/>
+      <c r="D21" s="122" t="n">
+        <v>535.25</v>
+      </c>
+      <c r="E21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="H21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="I21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="J21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="K21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="L21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M21" s="122" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="N21" s="122" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="O21" s="122" t="n">
+        <v>10.25</v>
       </c>
       <c r="P21" s="111" t="n"/>
-      <c r="Q21" s="112">
-        <f>SUM(Summary!$D21:$O21)</f>
-        <v/>
+      <c r="Q21" s="112" t="n">
+        <v>673</v>
       </c>
       <c r="R21" s="113" t="n"/>
       <c r="S21" s="114" t="n"/>
       <c r="T21" s="113" t="n"/>
     </row>
-    <row r="22" s="155">
+    <row r="22" customFormat="1" s="49">
       <c r="B22" s="115" t="inlineStr">
         <is>
           <t>Direct Mail (% of Direct Sales)</t>
@@ -11192,7 +10716,7 @@
       <c r="S22" s="120" t="n"/>
       <c r="T22" s="119" t="n"/>
     </row>
-    <row r="23" ht="13" customHeight="1" s="155">
+    <row r="23" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B23" s="99" t="inlineStr">
         <is>
           <t>Human Resources - Cost</t>
@@ -11212,15 +10736,14 @@
       <c r="N23" s="100" t="n"/>
       <c r="O23" s="123" t="n"/>
       <c r="P23" s="74" t="n"/>
-      <c r="Q23" s="82">
-        <f>SUM(Summary!$D23:$O23)</f>
-        <v/>
+      <c r="Q23" s="82" t="n">
+        <v>0</v>
       </c>
       <c r="R23" s="83" t="n"/>
       <c r="S23" s="102" t="n"/>
       <c r="T23" s="83" t="n"/>
     </row>
-    <row r="24" ht="13" customHeight="1" s="155">
+    <row r="24" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B24" s="99" t="inlineStr">
         <is>
           <t>Material</t>
@@ -11264,15 +10787,14 @@
         <v>1000</v>
       </c>
       <c r="P24" s="74" t="n"/>
-      <c r="Q24" s="82">
-        <f>SUM(Summary!$D24:$O24)</f>
-        <v/>
+      <c r="Q24" s="82" t="n">
+        <v>12000</v>
       </c>
       <c r="R24" s="83" t="n"/>
       <c r="S24" s="102" t="n"/>
       <c r="T24" s="83" t="n"/>
     </row>
-    <row r="25" ht="13" customHeight="1" s="155">
+    <row r="25" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B25" s="99" t="inlineStr">
         <is>
           <t>Postage</t>
@@ -11316,144 +10838,117 @@
         <v>250</v>
       </c>
       <c r="P25" s="74" t="n"/>
-      <c r="Q25" s="88">
-        <f>SUM(Summary!$D25:$O25)</f>
-        <v/>
+      <c r="Q25" s="88" t="n">
+        <v>3000</v>
       </c>
       <c r="R25" s="89" t="n"/>
       <c r="S25" s="106" t="n"/>
       <c r="T25" s="89" t="n"/>
     </row>
-    <row r="26" ht="20" customHeight="1" s="155">
-      <c r="B26" s="176" t="inlineStr">
+    <row r="26" ht="20" customFormat="1" customHeight="1" s="107" thickBot="1">
+      <c r="B26" s="108" t="inlineStr">
         <is>
           <t>Direct Mail Total $(000)</t>
         </is>
       </c>
-      <c r="C26" s="176" t="n"/>
-      <c r="D26" s="179">
-        <f>SUM(D23:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="179">
-        <f>SUM(E23:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="179">
-        <f>SUM(F23:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="179">
-        <f>SUM(G23:G25)</f>
-        <v/>
-      </c>
-      <c r="H26" s="179">
-        <f>SUM(H23:H25)</f>
-        <v/>
-      </c>
-      <c r="I26" s="179">
-        <f>SUM(I23:I25)</f>
-        <v/>
-      </c>
-      <c r="J26" s="179">
-        <f>SUM(J23:J25)</f>
-        <v/>
-      </c>
-      <c r="K26" s="179">
-        <f>SUM(K23:K25)</f>
-        <v/>
-      </c>
-      <c r="L26" s="179">
-        <f>SUM(L23:L25)</f>
-        <v/>
-      </c>
-      <c r="M26" s="179">
-        <f>SUM(M23:M25)</f>
-        <v/>
-      </c>
-      <c r="N26" s="179">
-        <f>SUM(N23:N25)</f>
-        <v/>
-      </c>
-      <c r="O26" s="179">
-        <f>SUM(O23:O25)</f>
-        <v/>
+      <c r="C26" s="108" t="n"/>
+      <c r="D26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="I26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="J26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="K26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="L26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="M26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N26" s="122" t="n">
+        <v>1250</v>
+      </c>
+      <c r="O26" s="122" t="n">
+        <v>1250</v>
       </c>
       <c r="P26" s="111" t="n"/>
-      <c r="Q26" s="112">
-        <f>SUM(Q23:Q25)</f>
-        <v/>
+      <c r="Q26" s="112" t="n">
+        <v>15000</v>
       </c>
       <c r="R26" s="113" t="n"/>
       <c r="S26" s="124" t="n"/>
       <c r="T26" s="113" t="n"/>
     </row>
-    <row r="27" ht="24" customHeight="1" s="155">
-      <c r="B27" s="180" t="inlineStr">
+    <row r="27" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B27" s="125" t="inlineStr">
         <is>
           <t>Direct Marketing Total $(000)</t>
         </is>
       </c>
-      <c r="C27" s="173" t="n"/>
-      <c r="D27" s="174">
-        <f>SUM(D15,D21,D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="174">
-        <f>SUM(E15,E21,E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="174">
-        <f>SUM(F15,F21,F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="174">
-        <f>SUM(G15,G21,G26)</f>
-        <v/>
-      </c>
-      <c r="H27" s="174">
-        <f>SUM(H15,H21,H26)</f>
-        <v/>
-      </c>
-      <c r="I27" s="174">
-        <f>SUM(I15,I21,I26)</f>
-        <v/>
-      </c>
-      <c r="J27" s="174">
-        <f>SUM(J15,J21,J26)</f>
-        <v/>
-      </c>
-      <c r="K27" s="174">
-        <f>SUM(K15,K21,K26)</f>
-        <v/>
-      </c>
-      <c r="L27" s="174">
-        <f>SUM(L15,L21,L26)</f>
-        <v/>
-      </c>
-      <c r="M27" s="174">
-        <f>SUM(M15,M21,M26)</f>
-        <v/>
-      </c>
-      <c r="N27" s="174">
-        <f>SUM(N15,N21,N26)</f>
-        <v/>
-      </c>
-      <c r="O27" s="174">
-        <f>SUM(O15,O21,O26)</f>
-        <v/>
+      <c r="C27" s="39" t="n"/>
+      <c r="D27" s="91" t="n">
+        <v>1839.05</v>
+      </c>
+      <c r="E27" s="91" t="n">
+        <v>1282.15</v>
+      </c>
+      <c r="F27" s="91" t="n">
+        <v>1312.05</v>
+      </c>
+      <c r="G27" s="91" t="n">
+        <v>1281.91</v>
+      </c>
+      <c r="H27" s="91" t="n">
+        <v>1311.948</v>
+      </c>
+      <c r="I27" s="91" t="n">
+        <v>1281.9375</v>
+      </c>
+      <c r="J27" s="91" t="n">
+        <v>1311.9</v>
+      </c>
+      <c r="K27" s="91" t="n">
+        <v>1281.84</v>
+      </c>
+      <c r="L27" s="91" t="n">
+        <v>1311.8</v>
+      </c>
+      <c r="M27" s="91" t="n">
+        <v>1281.8</v>
+      </c>
+      <c r="N27" s="91" t="n">
+        <v>1336.8</v>
+      </c>
+      <c r="O27" s="91" t="n">
+        <v>1281.8</v>
       </c>
       <c r="P27" s="126" t="n"/>
-      <c r="Q27" s="112">
-        <f>SUM(Q15,Q21,Q26)</f>
-        <v/>
+      <c r="Q27" s="112" t="n">
+        <v>16114.9855</v>
       </c>
       <c r="R27" s="113" t="n"/>
       <c r="S27" s="114" t="n"/>
       <c r="T27" s="113" t="n"/>
     </row>
-    <row r="28" ht="27" customHeight="1" s="155">
-      <c r="B28" s="175" t="inlineStr">
+    <row r="28" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B28" s="96" t="inlineStr">
         <is>
           <t>AGENT/BROKER (% OF TOTAL SALES)</t>
         </is>
@@ -11501,7 +10996,7 @@
       <c r="S28" s="70" t="n"/>
       <c r="T28" s="69" t="n"/>
     </row>
-    <row r="29" ht="13" customHeight="1" s="155">
+    <row r="29" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B29" s="71" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -11545,15 +11040,14 @@
         <v>50</v>
       </c>
       <c r="P29" s="74" t="n"/>
-      <c r="Q29" s="75">
-        <f>SUM(Summary!$D29:$O29)</f>
-        <v/>
+      <c r="Q29" s="75" t="n">
+        <v>600</v>
       </c>
       <c r="R29" s="76" t="n"/>
       <c r="S29" s="77" t="n"/>
       <c r="T29" s="76" t="n"/>
     </row>
-    <row r="30" ht="13" customHeight="1" s="155">
+    <row r="30" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B30" s="78" t="inlineStr">
         <is>
           <t>Training</t>
@@ -11597,15 +11091,14 @@
         <v>250</v>
       </c>
       <c r="P30" s="81" t="n"/>
-      <c r="Q30" s="82">
-        <f>SUM(Summary!$D30:$O30)</f>
-        <v/>
+      <c r="Q30" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R30" s="83" t="n"/>
       <c r="S30" s="84" t="n"/>
       <c r="T30" s="83" t="n"/>
     </row>
-    <row r="31" ht="13" customHeight="1" s="155">
+    <row r="31" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B31" s="78" t="inlineStr">
         <is>
           <t>Promotions</t>
@@ -11649,15 +11142,14 @@
         <v>600</v>
       </c>
       <c r="P31" s="81" t="n"/>
-      <c r="Q31" s="82">
-        <f>SUM(Summary!$D31:$O31)</f>
-        <v/>
+      <c r="Q31" s="82" t="n">
+        <v>7200</v>
       </c>
       <c r="R31" s="83" t="n"/>
       <c r="S31" s="84" t="n"/>
       <c r="T31" s="83" t="n"/>
     </row>
-    <row r="32" ht="13" customHeight="1" s="155">
+    <row r="32" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B32" s="78" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -11666,64 +11158,51 @@
       <c r="C32" s="103" t="n">
         <v>0.1</v>
       </c>
-      <c r="D32" s="80">
-        <f>D3*D28*$C$32</f>
-        <v/>
-      </c>
-      <c r="E32" s="80">
-        <f>E3*E28*$C$32</f>
-        <v/>
-      </c>
-      <c r="F32" s="80">
-        <f>F3*F28*$C$32</f>
-        <v/>
-      </c>
-      <c r="G32" s="80">
-        <f>G3*G28*$C$32</f>
-        <v/>
-      </c>
-      <c r="H32" s="80">
-        <f>H3*H28*$C$32</f>
-        <v/>
-      </c>
-      <c r="I32" s="80">
-        <f>I3*I28*$C$32</f>
-        <v/>
-      </c>
-      <c r="J32" s="80">
-        <f>J3*J28*$C$32</f>
-        <v/>
-      </c>
-      <c r="K32" s="80">
-        <f>K3*K28*$C$32</f>
-        <v/>
-      </c>
-      <c r="L32" s="80">
-        <f>L3*L28*$C$32</f>
-        <v/>
-      </c>
-      <c r="M32" s="80">
-        <f>M3*M28*$C$32</f>
-        <v/>
-      </c>
-      <c r="N32" s="80">
-        <f>N3*N28*$C$32</f>
-        <v/>
-      </c>
-      <c r="O32" s="80">
-        <f>O3*O28*$C$32</f>
-        <v/>
+      <c r="D32" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="H32" s="80" t="n">
+        <v>12</v>
+      </c>
+      <c r="I32" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J32" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="K32" s="80" t="n">
+        <v>18</v>
+      </c>
+      <c r="L32" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="M32" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="N32" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="O32" s="80" t="n">
+        <v>20</v>
       </c>
       <c r="P32" s="81" t="n"/>
-      <c r="Q32" s="82">
-        <f>SUM(Summary!$D32:$O32)</f>
-        <v/>
+      <c r="Q32" s="82" t="n">
+        <v>172</v>
       </c>
       <c r="R32" s="83" t="n"/>
       <c r="S32" s="84" t="n"/>
       <c r="T32" s="83" t="n"/>
     </row>
-    <row r="33" ht="13" customHeight="1" s="155">
+    <row r="33" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B33" s="85" t="inlineStr">
         <is>
           <t>Commission (% of Agent's Sales)</t>
@@ -11732,129 +11211,103 @@
       <c r="C33" s="86" t="n">
         <v>0.1</v>
       </c>
-      <c r="D33" s="80">
-        <f>D3*D28*$C$33</f>
-        <v/>
-      </c>
-      <c r="E33" s="80">
-        <f>E3*E28*$C$33</f>
-        <v/>
-      </c>
-      <c r="F33" s="80">
-        <f>F3*F28*$C$33</f>
-        <v/>
-      </c>
-      <c r="G33" s="80">
-        <f>G3*G28*$C$33</f>
-        <v/>
-      </c>
-      <c r="H33" s="80">
-        <f>H3*H28*$C$33</f>
-        <v/>
-      </c>
-      <c r="I33" s="80">
-        <f>I3*I28*$C$33</f>
-        <v/>
-      </c>
-      <c r="J33" s="80">
-        <f>J3*J28*$C$33</f>
-        <v/>
-      </c>
-      <c r="K33" s="80">
-        <f>K3*K28*$C$33</f>
-        <v/>
-      </c>
-      <c r="L33" s="80">
-        <f>L3*L28*$C$33</f>
-        <v/>
-      </c>
-      <c r="M33" s="80">
-        <f>M3*M28*$C$33</f>
-        <v/>
-      </c>
-      <c r="N33" s="80">
-        <f>N3*N28*$C$33</f>
-        <v/>
-      </c>
-      <c r="O33" s="80">
-        <f>O3*O28*$C$33</f>
-        <v/>
+      <c r="D33" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="H33" s="80" t="n">
+        <v>12</v>
+      </c>
+      <c r="I33" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" s="80" t="n">
+        <v>15</v>
+      </c>
+      <c r="K33" s="80" t="n">
+        <v>18</v>
+      </c>
+      <c r="L33" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="M33" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="N33" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="O33" s="80" t="n">
+        <v>20</v>
       </c>
       <c r="P33" s="74" t="n"/>
-      <c r="Q33" s="88">
-        <f>SUM(Summary!$D33:$O33)</f>
-        <v/>
+      <c r="Q33" s="88" t="n">
+        <v>172</v>
       </c>
       <c r="R33" s="89" t="n"/>
       <c r="S33" s="106" t="n"/>
       <c r="T33" s="89" t="n"/>
     </row>
-    <row r="34" ht="24" customHeight="1" s="155">
-      <c r="B34" s="173" t="inlineStr">
+    <row r="34" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B34" s="39" t="inlineStr">
         <is>
           <t>Agent/Broker Total $(000)</t>
         </is>
       </c>
-      <c r="C34" s="173" t="n"/>
-      <c r="D34" s="174">
-        <f>SUM(D29:D33)</f>
-        <v/>
-      </c>
-      <c r="E34" s="174">
-        <f>SUM(E29:E33)</f>
-        <v/>
-      </c>
-      <c r="F34" s="174">
-        <f>SUM(F29:F33)</f>
-        <v/>
-      </c>
-      <c r="G34" s="174">
-        <f>SUM(G29:G33)</f>
-        <v/>
-      </c>
-      <c r="H34" s="174">
-        <f>SUM(H29:H33)</f>
-        <v/>
-      </c>
-      <c r="I34" s="174">
-        <f>SUM(I29:I33)</f>
-        <v/>
-      </c>
-      <c r="J34" s="174">
-        <f>SUM(J29:J33)</f>
-        <v/>
-      </c>
-      <c r="K34" s="174">
-        <f>SUM(K29:K33)</f>
-        <v/>
-      </c>
-      <c r="L34" s="174">
-        <f>SUM(L29:L33)</f>
-        <v/>
-      </c>
-      <c r="M34" s="174">
-        <f>SUM(M29:M33)</f>
-        <v/>
-      </c>
-      <c r="N34" s="174">
-        <f>SUM(N29:N33)</f>
-        <v/>
-      </c>
-      <c r="O34" s="174">
-        <f>SUM(O29:O33)</f>
-        <v/>
+      <c r="C34" s="39" t="n"/>
+      <c r="D34" s="91" t="n">
+        <v>916</v>
+      </c>
+      <c r="E34" s="91" t="n">
+        <v>916</v>
+      </c>
+      <c r="F34" s="91" t="n">
+        <v>916</v>
+      </c>
+      <c r="G34" s="91" t="n">
+        <v>916</v>
+      </c>
+      <c r="H34" s="91" t="n">
+        <v>924</v>
+      </c>
+      <c r="I34" s="91" t="n">
+        <v>930</v>
+      </c>
+      <c r="J34" s="91" t="n">
+        <v>930</v>
+      </c>
+      <c r="K34" s="91" t="n">
+        <v>936</v>
+      </c>
+      <c r="L34" s="91" t="n">
+        <v>940</v>
+      </c>
+      <c r="M34" s="91" t="n">
+        <v>940</v>
+      </c>
+      <c r="N34" s="91" t="n">
+        <v>940</v>
+      </c>
+      <c r="O34" s="91" t="n">
+        <v>940</v>
       </c>
       <c r="P34" s="126" t="n"/>
-      <c r="Q34" s="112">
-        <f>SUM(Q29:Q33)</f>
-        <v/>
+      <c r="Q34" s="112" t="n">
+        <v>11144</v>
       </c>
       <c r="R34" s="113" t="n"/>
       <c r="S34" s="114" t="n"/>
       <c r="T34" s="113" t="n"/>
     </row>
-    <row r="35" ht="27" customHeight="1" s="155">
-      <c r="B35" s="175" t="inlineStr">
+    <row r="35" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B35" s="96" t="inlineStr">
         <is>
           <t>DISTRIBUTORS (% OF TOTAL SALES)</t>
         </is>
@@ -11902,7 +11355,7 @@
       <c r="S35" s="70" t="n"/>
       <c r="T35" s="69" t="n"/>
     </row>
-    <row r="36" ht="13" customHeight="1" s="155">
+    <row r="36" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B36" s="71" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -11946,15 +11399,14 @@
         <v>50</v>
       </c>
       <c r="P36" s="74" t="n"/>
-      <c r="Q36" s="75">
-        <f>SUM(Summary!$D36:$O36)</f>
-        <v/>
+      <c r="Q36" s="75" t="n">
+        <v>600</v>
       </c>
       <c r="R36" s="76" t="n"/>
       <c r="S36" s="77" t="n"/>
       <c r="T36" s="76" t="n"/>
     </row>
-    <row r="37" ht="13" customHeight="1" s="155">
+    <row r="37" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B37" s="78" t="inlineStr">
         <is>
           <t>Training</t>
@@ -11998,15 +11450,14 @@
         <v>250</v>
       </c>
       <c r="P37" s="81" t="n"/>
-      <c r="Q37" s="82">
-        <f>SUM(Summary!$D37:$O37)</f>
-        <v/>
+      <c r="Q37" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R37" s="83" t="n"/>
       <c r="S37" s="84" t="n"/>
       <c r="T37" s="83" t="n"/>
     </row>
-    <row r="38" ht="13" customHeight="1" s="155">
+    <row r="38" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B38" s="78" t="inlineStr">
         <is>
           <t>Promotions</t>
@@ -12050,15 +11501,14 @@
         <v>600</v>
       </c>
       <c r="P38" s="81" t="n"/>
-      <c r="Q38" s="82">
-        <f>SUM(Summary!$D38:$O38)</f>
-        <v/>
+      <c r="Q38" s="82" t="n">
+        <v>7200</v>
       </c>
       <c r="R38" s="83" t="n"/>
       <c r="S38" s="84" t="n"/>
       <c r="T38" s="83" t="n"/>
     </row>
-    <row r="39" ht="13" customHeight="1" s="155">
+    <row r="39" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B39" s="85" t="inlineStr">
         <is>
           <t>Commission/Discounts (% of Distributors' Sales)</t>
@@ -12067,129 +11517,103 @@
       <c r="C39" s="86" t="n">
         <v>0.15</v>
       </c>
-      <c r="D39" s="105">
-        <f>D3*D35*$C$39</f>
-        <v/>
-      </c>
-      <c r="E39" s="105">
-        <f>E3*E35*$C$39</f>
-        <v/>
-      </c>
-      <c r="F39" s="105">
-        <f>F3*F35*$C$39</f>
-        <v/>
-      </c>
-      <c r="G39" s="105">
-        <f>G3*G35*$C$39</f>
-        <v/>
-      </c>
-      <c r="H39" s="105">
-        <f>H3*H35*$C$39</f>
-        <v/>
-      </c>
-      <c r="I39" s="105">
-        <f>I3*I35*$C$39</f>
-        <v/>
-      </c>
-      <c r="J39" s="105">
-        <f>J3*J35*$C$39</f>
-        <v/>
-      </c>
-      <c r="K39" s="105">
-        <f>K3*K35*$C$39</f>
-        <v/>
-      </c>
-      <c r="L39" s="105">
-        <f>L3*L35*$C$39</f>
-        <v/>
-      </c>
-      <c r="M39" s="105">
-        <f>M3*M35*$C$39</f>
-        <v/>
-      </c>
-      <c r="N39" s="105">
-        <f>N3*N35*$C$39</f>
-        <v/>
-      </c>
-      <c r="O39" s="105">
-        <f>O3*O35*$C$39</f>
-        <v/>
+      <c r="D39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="105" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="J39" s="105" t="n">
+        <v>45</v>
+      </c>
+      <c r="K39" s="105" t="n">
+        <v>108</v>
+      </c>
+      <c r="L39" s="105" t="n">
+        <v>120</v>
+      </c>
+      <c r="M39" s="105" t="n">
+        <v>120</v>
+      </c>
+      <c r="N39" s="105" t="n">
+        <v>120</v>
+      </c>
+      <c r="O39" s="105" t="n">
+        <v>120</v>
       </c>
       <c r="P39" s="74" t="n"/>
-      <c r="Q39" s="88">
-        <f>SUM(Summary!$D39:$O39)</f>
-        <v/>
+      <c r="Q39" s="88" t="n">
+        <v>666.75</v>
       </c>
       <c r="R39" s="89" t="n"/>
       <c r="S39" s="106" t="n"/>
       <c r="T39" s="89" t="n"/>
     </row>
-    <row r="40" ht="24" customHeight="1" s="155">
-      <c r="B40" s="173" t="inlineStr">
+    <row r="40" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B40" s="39" t="inlineStr">
         <is>
           <t>Distributor Total $(000)</t>
         </is>
       </c>
-      <c r="C40" s="173" t="n"/>
-      <c r="D40" s="174">
-        <f>SUM(D36:D39)</f>
-        <v/>
-      </c>
-      <c r="E40" s="174">
-        <f>SUM(E36:E39)</f>
-        <v/>
-      </c>
-      <c r="F40" s="174">
-        <f>SUM(F36:F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="174">
-        <f>SUM(G36:G39)</f>
-        <v/>
-      </c>
-      <c r="H40" s="174">
-        <f>SUM(H36:H39)</f>
-        <v/>
-      </c>
-      <c r="I40" s="174">
-        <f>SUM(I36:I39)</f>
-        <v/>
-      </c>
-      <c r="J40" s="174">
-        <f>SUM(J36:J39)</f>
-        <v/>
-      </c>
-      <c r="K40" s="174">
-        <f>SUM(K36:K39)</f>
-        <v/>
-      </c>
-      <c r="L40" s="174">
-        <f>SUM(L36:L39)</f>
-        <v/>
-      </c>
-      <c r="M40" s="174">
-        <f>SUM(M36:M39)</f>
-        <v/>
-      </c>
-      <c r="N40" s="174">
-        <f>SUM(N36:N39)</f>
-        <v/>
-      </c>
-      <c r="O40" s="174">
-        <f>SUM(O36:O39)</f>
-        <v/>
+      <c r="C40" s="39" t="n"/>
+      <c r="D40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="E40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="F40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="G40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="H40" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="I40" s="91" t="n">
+        <v>933.75</v>
+      </c>
+      <c r="J40" s="91" t="n">
+        <v>945</v>
+      </c>
+      <c r="K40" s="91" t="n">
+        <v>1008</v>
+      </c>
+      <c r="L40" s="91" t="n">
+        <v>1020</v>
+      </c>
+      <c r="M40" s="91" t="n">
+        <v>1020</v>
+      </c>
+      <c r="N40" s="91" t="n">
+        <v>1020</v>
+      </c>
+      <c r="O40" s="91" t="n">
+        <v>1020</v>
       </c>
       <c r="P40" s="126" t="n"/>
-      <c r="Q40" s="112">
-        <f>SUM(Q36:Q39)</f>
-        <v/>
+      <c r="Q40" s="112" t="n">
+        <v>11466.75</v>
       </c>
       <c r="R40" s="113" t="n"/>
       <c r="S40" s="114" t="n"/>
       <c r="T40" s="113" t="n"/>
     </row>
-    <row r="41" ht="27" customHeight="1" s="155">
-      <c r="B41" s="175" t="inlineStr">
+    <row r="41" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B41" s="96" t="inlineStr">
         <is>
           <t>RETAILER (% OF TOTAL SALES)</t>
         </is>
@@ -12237,7 +11661,7 @@
       <c r="S41" s="70" t="n"/>
       <c r="T41" s="69" t="n"/>
     </row>
-    <row r="42" ht="13" customHeight="1" s="155">
+    <row r="42" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B42" s="71" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -12281,15 +11705,14 @@
         <v>50</v>
       </c>
       <c r="P42" s="74" t="n"/>
-      <c r="Q42" s="75">
-        <f>SUM(Summary!$D42:$O42)</f>
-        <v/>
+      <c r="Q42" s="75" t="n">
+        <v>600</v>
       </c>
       <c r="R42" s="76" t="n"/>
       <c r="S42" s="77" t="n"/>
       <c r="T42" s="76" t="n"/>
     </row>
-    <row r="43" ht="13" customHeight="1" s="155">
+    <row r="43" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B43" s="78" t="inlineStr">
         <is>
           <t>Training</t>
@@ -12333,15 +11756,14 @@
         <v>250</v>
       </c>
       <c r="P43" s="81" t="n"/>
-      <c r="Q43" s="82">
-        <f>SUM(Summary!$D43:$O43)</f>
-        <v/>
+      <c r="Q43" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R43" s="83" t="n"/>
       <c r="S43" s="84" t="n"/>
       <c r="T43" s="83" t="n"/>
     </row>
-    <row r="44" ht="13" customHeight="1" s="155">
+    <row r="44" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B44" s="78" t="inlineStr">
         <is>
           <t>Promotions</t>
@@ -12385,15 +11807,14 @@
         <v>600</v>
       </c>
       <c r="P44" s="81" t="n"/>
-      <c r="Q44" s="82">
-        <f>SUM(Summary!$D44:$O44)</f>
-        <v/>
+      <c r="Q44" s="82" t="n">
+        <v>7200</v>
       </c>
       <c r="R44" s="83" t="n"/>
       <c r="S44" s="84" t="n"/>
       <c r="T44" s="83" t="n"/>
     </row>
-    <row r="45" ht="13" customHeight="1" s="155">
+    <row r="45" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B45" s="85" t="inlineStr">
         <is>
           <t>Commission/Discounts (% of Retail Sales)</t>
@@ -12402,134 +11823,108 @@
       <c r="C45" s="86" t="n">
         <v>0.1</v>
       </c>
-      <c r="D45" s="105">
-        <f>D3*D41*$C$45</f>
-        <v/>
-      </c>
-      <c r="E45" s="105">
-        <f>E3*E41*$C$45</f>
-        <v/>
-      </c>
-      <c r="F45" s="105">
-        <f>F3*F41*$C$45</f>
-        <v/>
-      </c>
-      <c r="G45" s="105">
-        <f>G3*G41*$C$45</f>
-        <v/>
-      </c>
-      <c r="H45" s="105">
-        <f>H3*H41*$C$45</f>
-        <v/>
-      </c>
-      <c r="I45" s="105">
-        <f>I3*I41*$C$45</f>
-        <v/>
-      </c>
-      <c r="J45" s="105">
-        <f>J3*J41*$C$45</f>
-        <v/>
-      </c>
-      <c r="K45" s="105">
-        <f>K3*K41*$C$45</f>
-        <v/>
-      </c>
-      <c r="L45" s="105">
-        <f>L3*L41*$C$45</f>
-        <v/>
-      </c>
-      <c r="M45" s="105">
-        <f>M3*M41*$C$45</f>
-        <v/>
-      </c>
-      <c r="N45" s="105">
-        <f>N3*N41*$C$45</f>
-        <v/>
-      </c>
-      <c r="O45" s="105">
-        <f>O3*O41*$C$45</f>
-        <v/>
+      <c r="D45" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="105" t="n">
+        <v>20</v>
+      </c>
+      <c r="G45" s="105" t="n">
+        <v>48</v>
+      </c>
+      <c r="H45" s="105" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="I45" s="105" t="n">
+        <v>90</v>
+      </c>
+      <c r="J45" s="105" t="n">
+        <v>90</v>
+      </c>
+      <c r="K45" s="105" t="n">
+        <v>90</v>
+      </c>
+      <c r="L45" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="M45" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="N45" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="O45" s="105" t="n">
+        <v>60</v>
       </c>
       <c r="P45" s="74" t="n"/>
-      <c r="Q45" s="88">
-        <f>SUM(Summary!$D45:$O45)</f>
-        <v/>
+      <c r="Q45" s="88" t="n">
+        <v>658.4</v>
       </c>
       <c r="R45" s="89" t="n"/>
       <c r="S45" s="106" t="n"/>
       <c r="T45" s="89" t="n"/>
     </row>
-    <row r="46" ht="23" customHeight="1" s="155">
-      <c r="B46" s="173" t="inlineStr">
+    <row r="46" ht="23" customFormat="1" customHeight="1" s="127">
+      <c r="B46" s="39" t="inlineStr">
         <is>
           <t>Retailer Total $(000)</t>
         </is>
       </c>
-      <c r="C46" s="173" t="n"/>
-      <c r="D46" s="174">
-        <f>SUM(D42:D45)</f>
-        <v/>
-      </c>
-      <c r="E46" s="174">
-        <f>SUM(E42:E45)</f>
-        <v/>
-      </c>
-      <c r="F46" s="174">
-        <f>SUM(F42:F45)</f>
-        <v/>
-      </c>
-      <c r="G46" s="174">
-        <f>SUM(G42:G45)</f>
-        <v/>
-      </c>
-      <c r="H46" s="174">
-        <f>SUM(H42:H45)</f>
-        <v/>
-      </c>
-      <c r="I46" s="174">
-        <f>SUM(I42:I45)</f>
-        <v/>
-      </c>
-      <c r="J46" s="174">
-        <f>SUM(J42:J45)</f>
-        <v/>
-      </c>
-      <c r="K46" s="174">
-        <f>SUM(K42:K45)</f>
-        <v/>
-      </c>
-      <c r="L46" s="174">
-        <f>SUM(L42:L45)</f>
-        <v/>
-      </c>
-      <c r="M46" s="174">
-        <f>SUM(M42:M45)</f>
-        <v/>
-      </c>
-      <c r="N46" s="174">
-        <f>SUM(N42:N45)</f>
-        <v/>
-      </c>
-      <c r="O46" s="174">
-        <f>SUM(O42:O45)</f>
-        <v/>
+      <c r="C46" s="39" t="n"/>
+      <c r="D46" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="E46" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="F46" s="91" t="n">
+        <v>920</v>
+      </c>
+      <c r="G46" s="91" t="n">
+        <v>948</v>
+      </c>
+      <c r="H46" s="91" t="n">
+        <v>980.4</v>
+      </c>
+      <c r="I46" s="91" t="n">
+        <v>990</v>
+      </c>
+      <c r="J46" s="91" t="n">
+        <v>990</v>
+      </c>
+      <c r="K46" s="91" t="n">
+        <v>990</v>
+      </c>
+      <c r="L46" s="91" t="n">
+        <v>960</v>
+      </c>
+      <c r="M46" s="91" t="n">
+        <v>960</v>
+      </c>
+      <c r="N46" s="91" t="n">
+        <v>960</v>
+      </c>
+      <c r="O46" s="91" t="n">
+        <v>960</v>
       </c>
       <c r="P46" s="126" t="n"/>
-      <c r="Q46" s="112">
-        <f>SUM(Q42:Q45)</f>
-        <v/>
+      <c r="Q46" s="112" t="n">
+        <v>11458.4</v>
       </c>
       <c r="R46" s="113" t="n"/>
       <c r="S46" s="114" t="n"/>
       <c r="T46" s="113" t="n"/>
     </row>
-    <row r="47" ht="27" customHeight="1" s="155">
-      <c r="B47" s="181" t="inlineStr">
+    <row r="47" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B47" s="129" t="inlineStr">
         <is>
           <t>CUSTOMER ACQUISITION &amp; RETENTION (CAR)</t>
         </is>
       </c>
-      <c r="C47" s="182" t="n"/>
+      <c r="C47" s="130" t="n"/>
       <c r="D47" s="66" t="n"/>
       <c r="E47" s="66" t="n"/>
       <c r="F47" s="66" t="n"/>
@@ -12548,7 +11943,7 @@
       <c r="S47" s="70" t="n"/>
       <c r="T47" s="69" t="n"/>
     </row>
-    <row r="48" ht="13" customHeight="1" s="155">
+    <row r="48" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B48" s="71" t="inlineStr">
         <is>
           <t>Human Resources</t>
@@ -12592,15 +11987,14 @@
         <v>50</v>
       </c>
       <c r="P48" s="74" t="n"/>
-      <c r="Q48" s="75">
-        <f>SUM(Summary!$D48:$O48)</f>
-        <v/>
+      <c r="Q48" s="75" t="n">
+        <v>600</v>
       </c>
       <c r="R48" s="76" t="n"/>
       <c r="S48" s="77" t="n"/>
       <c r="T48" s="76" t="n"/>
     </row>
-    <row r="49" ht="13" customHeight="1" s="155">
+    <row r="49" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B49" s="78" t="inlineStr">
         <is>
           <t>Communications</t>
@@ -12644,15 +12038,14 @@
         <v>250</v>
       </c>
       <c r="P49" s="81" t="n"/>
-      <c r="Q49" s="82">
-        <f>SUM(Summary!$D49:$O49)</f>
-        <v/>
+      <c r="Q49" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R49" s="83" t="n"/>
       <c r="S49" s="84" t="n"/>
       <c r="T49" s="83" t="n"/>
     </row>
-    <row r="50" ht="13" customHeight="1" s="155">
+    <row r="50" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B50" s="85" t="inlineStr">
         <is>
           <t>Promotions/Coupons</t>
@@ -12696,80 +12089,66 @@
         <v>600</v>
       </c>
       <c r="P50" s="74" t="n"/>
-      <c r="Q50" s="88">
-        <f>SUM(Summary!$D50:$O50)</f>
-        <v/>
+      <c r="Q50" s="88" t="n">
+        <v>7200</v>
       </c>
       <c r="R50" s="89" t="n"/>
       <c r="S50" s="106" t="n"/>
       <c r="T50" s="89" t="n"/>
     </row>
-    <row r="51" ht="24" customHeight="1" s="155">
-      <c r="B51" s="173" t="inlineStr">
+    <row r="51" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B51" s="39" t="inlineStr">
         <is>
           <t>CAR Total $(000)</t>
         </is>
       </c>
-      <c r="C51" s="173" t="n"/>
-      <c r="D51" s="174">
-        <f>SUM(D48:D50)</f>
-        <v/>
-      </c>
-      <c r="E51" s="174">
-        <f>SUM(E48:E50)</f>
-        <v/>
-      </c>
-      <c r="F51" s="174">
-        <f>SUM(F48:F50)</f>
-        <v/>
-      </c>
-      <c r="G51" s="174">
-        <f>SUM(G48:G50)</f>
-        <v/>
-      </c>
-      <c r="H51" s="174">
-        <f>SUM(H48:H50)</f>
-        <v/>
-      </c>
-      <c r="I51" s="174">
-        <f>SUM(I48:I50)</f>
-        <v/>
-      </c>
-      <c r="J51" s="174">
-        <f>SUM(J48:J50)</f>
-        <v/>
-      </c>
-      <c r="K51" s="174">
-        <f>SUM(K48:K50)</f>
-        <v/>
-      </c>
-      <c r="L51" s="174">
-        <f>SUM(L48:L50)</f>
-        <v/>
-      </c>
-      <c r="M51" s="174">
-        <f>SUM(M48:M50)</f>
-        <v/>
-      </c>
-      <c r="N51" s="174">
-        <f>SUM(N48:N50)</f>
-        <v/>
-      </c>
-      <c r="O51" s="174">
-        <f>SUM(O48:O50)</f>
-        <v/>
+      <c r="C51" s="39" t="n"/>
+      <c r="D51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="E51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="F51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="G51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="H51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="I51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="J51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="K51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="L51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="M51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="N51" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="O51" s="91" t="n">
+        <v>900</v>
       </c>
       <c r="P51" s="126" t="n"/>
-      <c r="Q51" s="112">
-        <f>SUM(Q48:Q50)</f>
-        <v/>
+      <c r="Q51" s="112" t="n">
+        <v>10800</v>
       </c>
       <c r="R51" s="113" t="n"/>
       <c r="S51" s="114" t="n"/>
       <c r="T51" s="113" t="n"/>
     </row>
-    <row r="52" ht="27" customHeight="1" s="155">
-      <c r="B52" s="175" t="inlineStr">
+    <row r="52" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B52" s="96" t="inlineStr">
         <is>
           <t>OTHER EXPENSES</t>
         </is>
@@ -12793,7 +12172,7 @@
       <c r="S52" s="70" t="n"/>
       <c r="T52" s="69" t="n"/>
     </row>
-    <row r="53" ht="13" customHeight="1" s="155">
+    <row r="53" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B53" s="71" t="inlineStr">
         <is>
           <t>Travel</t>
@@ -12837,15 +12216,14 @@
         <v>50</v>
       </c>
       <c r="P53" s="74" t="n"/>
-      <c r="Q53" s="118">
-        <f>SUM(Summary!$D53:$O53)</f>
-        <v/>
+      <c r="Q53" s="118" t="n">
+        <v>600</v>
       </c>
       <c r="R53" s="119" t="n"/>
       <c r="S53" s="120" t="n"/>
       <c r="T53" s="119" t="n"/>
     </row>
-    <row r="54" ht="13" customHeight="1" s="155">
+    <row r="54" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B54" s="78" t="inlineStr">
         <is>
           <t>Infrastructure (computer, telephone, etc.)</t>
@@ -12889,15 +12267,14 @@
         <v>250</v>
       </c>
       <c r="P54" s="81" t="n"/>
-      <c r="Q54" s="82">
-        <f>SUM(Summary!$D54:$O54)</f>
-        <v/>
+      <c r="Q54" s="82" t="n">
+        <v>3000</v>
       </c>
       <c r="R54" s="83" t="n"/>
       <c r="S54" s="84" t="n"/>
       <c r="T54" s="83" t="n"/>
     </row>
-    <row r="55" ht="13" customHeight="1" s="155">
+    <row r="55" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B55" s="85" t="inlineStr">
         <is>
           <t>Channel Support</t>
@@ -12941,79 +12318,65 @@
         <v>600</v>
       </c>
       <c r="P55" s="74" t="n"/>
-      <c r="Q55" s="88">
-        <f>SUM(Summary!$D55:$O55)</f>
-        <v/>
+      <c r="Q55" s="88" t="n">
+        <v>7200</v>
       </c>
       <c r="R55" s="89" t="n"/>
       <c r="S55" s="106" t="n"/>
       <c r="T55" s="89" t="n"/>
     </row>
-    <row r="56" ht="23" customHeight="1" s="155">
-      <c r="B56" s="173" t="inlineStr">
+    <row r="56" ht="23" customFormat="1" customHeight="1" s="127">
+      <c r="B56" s="39" t="inlineStr">
         <is>
           <t>Other Expenses Total $(000)</t>
         </is>
       </c>
-      <c r="C56" s="173" t="n"/>
-      <c r="D56" s="174">
-        <f>SUM(D53:D55)</f>
-        <v/>
-      </c>
-      <c r="E56" s="174">
-        <f>SUM(E53:E55)</f>
-        <v/>
-      </c>
-      <c r="F56" s="174">
-        <f>SUM(F53:F55)</f>
-        <v/>
-      </c>
-      <c r="G56" s="174">
-        <f>SUM(G53:G55)</f>
-        <v/>
-      </c>
-      <c r="H56" s="174">
-        <f>SUM(H53:H55)</f>
-        <v/>
-      </c>
-      <c r="I56" s="174">
-        <f>SUM(I53:I55)</f>
-        <v/>
-      </c>
-      <c r="J56" s="174">
-        <f>SUM(J53:J55)</f>
-        <v/>
-      </c>
-      <c r="K56" s="174">
-        <f>SUM(K53:K55)</f>
-        <v/>
-      </c>
-      <c r="L56" s="174">
-        <f>SUM(L53:L55)</f>
-        <v/>
-      </c>
-      <c r="M56" s="174">
-        <f>SUM(M53:M55)</f>
-        <v/>
-      </c>
-      <c r="N56" s="174">
-        <f>SUM(N53:N55)</f>
-        <v/>
-      </c>
-      <c r="O56" s="174">
-        <f>SUM(O53:O55)</f>
-        <v/>
+      <c r="C56" s="39" t="n"/>
+      <c r="D56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="E56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="F56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="G56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="H56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="I56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="J56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="K56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="L56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="M56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="N56" s="91" t="n">
+        <v>900</v>
+      </c>
+      <c r="O56" s="91" t="n">
+        <v>900</v>
       </c>
       <c r="P56" s="126" t="n"/>
-      <c r="Q56" s="112">
-        <f>SUM(Q53:Q55)</f>
-        <v/>
+      <c r="Q56" s="112" t="n">
+        <v>10800</v>
       </c>
       <c r="R56" s="113" t="n"/>
       <c r="S56" s="114" t="n"/>
       <c r="T56" s="113" t="n"/>
     </row>
-    <row r="57" ht="15" customHeight="1" s="155">
+    <row r="57" ht="15" customHeight="1" s="155" thickBot="1">
       <c r="D57" s="47" t="n"/>
       <c r="E57" s="47" t="n"/>
       <c r="F57" s="47" t="n"/>
@@ -13032,72 +12395,59 @@
       <c r="S57" s="133" t="n"/>
       <c r="T57" s="132" t="n"/>
     </row>
-    <row r="58" ht="20" customHeight="1" s="155">
+    <row r="58" ht="20" customFormat="1" customHeight="1" s="127" thickTop="1">
       <c r="B58" s="134" t="inlineStr">
         <is>
           <t>TOTAL MARKETING BUDGET:</t>
         </is>
       </c>
       <c r="C58" s="135" t="n"/>
-      <c r="D58" s="136">
-        <f>SUM(D8,D27,D34,D40,D46,D51,D56)</f>
-        <v/>
-      </c>
-      <c r="E58" s="136">
-        <f>SUM(E8,E27,E34,E40,E46,E51,E56)</f>
-        <v/>
-      </c>
-      <c r="F58" s="136">
-        <f>SUM(F8,F27,F34,F40,F46,F51,F56)</f>
-        <v/>
-      </c>
-      <c r="G58" s="136">
-        <f>SUM(G8,G27,G34,G40,G46,G51,G56)</f>
-        <v/>
-      </c>
-      <c r="H58" s="136">
-        <f>SUM(H8,H27,H34,H40,H46,H51,H56)</f>
-        <v/>
-      </c>
-      <c r="I58" s="136">
-        <f>SUM(I8,I27,I34,I40,I46,I51,I56)</f>
-        <v/>
-      </c>
-      <c r="J58" s="136">
-        <f>SUM(J8,J27,J34,J40,J46,J51,J56)</f>
-        <v/>
-      </c>
-      <c r="K58" s="136">
-        <f>SUM(K8,K27,K34,K40,K46,K51,K56)</f>
-        <v/>
-      </c>
-      <c r="L58" s="136">
-        <f>SUM(L8,L27,L34,L40,L46,L51,L56)</f>
-        <v/>
-      </c>
-      <c r="M58" s="136">
-        <f>SUM(M8,M27,M34,M40,M46,M51,M56)</f>
-        <v/>
-      </c>
-      <c r="N58" s="136">
-        <f>SUM(N8,N27,N34,N40,N46,N51,N56)</f>
-        <v/>
-      </c>
-      <c r="O58" s="136">
-        <f>SUM(O8,O27,O34,O40,O46,O51,O56)</f>
-        <v/>
+      <c r="D58" s="136" t="n">
+        <v>6380.85</v>
+      </c>
+      <c r="E58" s="136" t="n">
+        <v>5823.95</v>
+      </c>
+      <c r="F58" s="136" t="n">
+        <v>5873.85</v>
+      </c>
+      <c r="G58" s="136" t="n">
+        <v>5871.71</v>
+      </c>
+      <c r="H58" s="136" t="n">
+        <v>5942.548</v>
+      </c>
+      <c r="I58" s="136" t="n">
+        <v>5962.1875</v>
+      </c>
+      <c r="J58" s="136" t="n">
+        <v>6003.4</v>
+      </c>
+      <c r="K58" s="136" t="n">
+        <v>6042.639999999999</v>
+      </c>
+      <c r="L58" s="136" t="n">
+        <v>6058.8</v>
+      </c>
+      <c r="M58" s="136" t="n">
+        <v>6028.8</v>
+      </c>
+      <c r="N58" s="136" t="n">
+        <v>6083.8</v>
+      </c>
+      <c r="O58" s="136" t="n">
+        <v>6028.8</v>
       </c>
       <c r="P58" s="126" t="n"/>
-      <c r="Q58" s="137">
-        <f>SUM(Q8,Q27,Q34,Q40,Q46,Q51,Q56)</f>
-        <v/>
+      <c r="Q58" s="137" t="n">
+        <v>72101.3355</v>
       </c>
       <c r="R58" s="138" t="n"/>
       <c r="S58" s="114" t="n"/>
       <c r="T58" s="138" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13113,22 +12463,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="2" customWidth="1" style="155" min="1" max="1"/>
-    <col width="35.6640625" customWidth="1" style="155" min="2" max="2"/>
-    <col width="8" customWidth="1" style="155" min="3" max="3"/>
-    <col width="14.33203125" customWidth="1" style="155" min="4" max="4"/>
-    <col width="0.6640625" customWidth="1" style="155" min="16" max="16"/>
-    <col width="14.33203125" customWidth="1" style="155" min="17" max="17"/>
-    <col width="2.1640625" customWidth="1" style="155" min="18" max="18"/>
-    <col width="10.33203125" customWidth="1" style="155" min="19" max="19"/>
-    <col width="2.1640625" customWidth="1" style="155" min="20" max="20"/>
-    <col width="8.83203125" customWidth="1" style="155" min="21" max="21"/>
+    <col width="2" customWidth="1" style="44" min="1" max="1"/>
+    <col width="35.6640625" customWidth="1" style="44" min="2" max="2"/>
+    <col width="8" customWidth="1" style="46" min="3" max="3"/>
+    <col width="14.33203125" customWidth="1" style="46" min="4" max="15"/>
+    <col width="0.6640625" customWidth="1" style="46" min="16" max="16"/>
+    <col width="14.33203125" customWidth="1" style="46" min="17" max="17"/>
+    <col width="2.1640625" customWidth="1" style="44" min="18" max="18"/>
+    <col width="10.33203125" customWidth="1" style="44" min="19" max="19"/>
+    <col width="2.1640625" customWidth="1" style="44" min="20" max="20"/>
+    <col width="8.83203125" customWidth="1" style="44" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" s="155">
-      <c r="B1" s="171" t="inlineStr">
+      <c r="B1" s="45" t="inlineStr">
         <is>
           <t>CHANNEL MARKETING BUDGET</t>
         </is>
@@ -13150,7 +12500,7 @@
       <c r="R1" s="48" t="n"/>
       <c r="T1" s="48" t="n"/>
     </row>
-    <row r="2" ht="15" customHeight="1" s="155">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="49" thickBot="1">
       <c r="B2" s="50" t="n"/>
       <c r="C2" s="51" t="inlineStr">
         <is>
@@ -13227,7 +12577,7 @@
       <c r="S2" s="56" t="n"/>
       <c r="T2" s="55" t="n"/>
     </row>
-    <row r="3" ht="19" customHeight="1" s="155">
+    <row r="3" ht="19" customFormat="1" customHeight="1" s="57" thickTop="1">
       <c r="B3" s="57" t="inlineStr">
         <is>
           <t>ANTICIPATED SALES TOTAL $(000)</t>
@@ -13279,8 +12629,8 @@
       <c r="S3" s="62" t="n"/>
       <c r="T3" s="61" t="n"/>
     </row>
-    <row r="4" ht="27" customHeight="1" s="155">
-      <c r="B4" s="172" t="inlineStr">
+    <row r="4" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>PERSONNEL (% OF TOTAL SALES)</t>
         </is>
@@ -13340,7 +12690,7 @@
       <c r="S4" s="70" t="n"/>
       <c r="T4" s="69" t="n"/>
     </row>
-    <row r="5" ht="13" customHeight="1" s="155">
+    <row r="5" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B5" s="71" t="inlineStr">
         <is>
           <t>Human Resources - Headcount</t>
@@ -13403,7 +12753,7 @@
       <c r="S5" s="77" t="n"/>
       <c r="T5" s="76" t="n"/>
     </row>
-    <row r="6" ht="13" customHeight="1" s="155">
+    <row r="6" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B6" s="78" t="inlineStr">
         <is>
           <t>Human Resources - Cost</t>
@@ -13460,14 +12810,14 @@
       </c>
       <c r="P6" s="81" t="n"/>
       <c r="Q6" s="82">
-        <f>SUM(Summary!$D6:$O6)</f>
+        <f>SUM([1]Summary!$D6:$O6)</f>
         <v/>
       </c>
       <c r="R6" s="83" t="n"/>
       <c r="S6" s="84" t="n"/>
       <c r="T6" s="83" t="n"/>
     </row>
-    <row r="7" ht="13" customHeight="1" s="155">
+    <row r="7" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B7" s="85" t="inlineStr">
         <is>
           <t>Commission</t>
@@ -13526,79 +12876,79 @@
       </c>
       <c r="P7" s="81" t="n"/>
       <c r="Q7" s="88">
-        <f>SUM(Summary!$D7:$O7)</f>
+        <f>SUM([1]Summary!$D7:$O7)</f>
         <v/>
       </c>
       <c r="R7" s="89" t="n"/>
       <c r="S7" s="90" t="n"/>
       <c r="T7" s="89" t="n"/>
     </row>
-    <row r="8" ht="24" customHeight="1" s="155">
-      <c r="B8" s="173" t="inlineStr">
+    <row r="8" ht="24" customHeight="1" s="155" thickBot="1">
+      <c r="B8" s="39" t="inlineStr">
         <is>
           <t>Personnel Total $(000)</t>
         </is>
       </c>
-      <c r="C8" s="173" t="n"/>
-      <c r="D8" s="174">
+      <c r="C8" s="39" t="n"/>
+      <c r="D8" s="91">
         <f>SUM(D6:D7)</f>
         <v/>
       </c>
-      <c r="E8" s="174">
+      <c r="E8" s="91">
         <f>SUM(E6:E7)</f>
         <v/>
       </c>
-      <c r="F8" s="174">
+      <c r="F8" s="91">
         <f>SUM(F6:F7)</f>
         <v/>
       </c>
-      <c r="G8" s="174">
+      <c r="G8" s="91">
         <f>SUM(G6:G7)</f>
         <v/>
       </c>
-      <c r="H8" s="174">
+      <c r="H8" s="91">
         <f>SUM(H6:H7)</f>
         <v/>
       </c>
-      <c r="I8" s="174">
+      <c r="I8" s="91">
         <f>SUM(I6:I7)</f>
         <v/>
       </c>
-      <c r="J8" s="174">
+      <c r="J8" s="91">
         <f>SUM(J6:J7)</f>
         <v/>
       </c>
-      <c r="K8" s="174">
+      <c r="K8" s="91">
         <f>SUM(K6:K7)</f>
         <v/>
       </c>
-      <c r="L8" s="174">
+      <c r="L8" s="91">
         <f>SUM(L6:L7)</f>
         <v/>
       </c>
-      <c r="M8" s="174">
+      <c r="M8" s="91">
         <f>SUM(M6:M7)</f>
         <v/>
       </c>
-      <c r="N8" s="174">
+      <c r="N8" s="91">
         <f>SUM(N6:N7)</f>
         <v/>
       </c>
-      <c r="O8" s="174">
+      <c r="O8" s="91">
         <f>SUM(O6:O7)</f>
         <v/>
       </c>
       <c r="P8" s="92" t="n"/>
       <c r="Q8" s="93">
-        <f>SUM(Summary!$D8:$O8)</f>
+        <f>SUM([1]Summary!$D8:$O8)</f>
         <v/>
       </c>
       <c r="R8" s="94" t="n"/>
       <c r="S8" s="95" t="n"/>
       <c r="T8" s="94" t="n"/>
     </row>
-    <row r="9" ht="27" customHeight="1" s="155">
-      <c r="B9" s="175" t="inlineStr">
+    <row r="9" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B9" s="96" t="inlineStr">
         <is>
           <t>DIRECT MARKETING (% OF TOTAL SALES)</t>
         </is>
@@ -13646,7 +12996,7 @@
       <c r="S9" s="70" t="n"/>
       <c r="T9" s="69" t="n"/>
     </row>
-    <row r="10" ht="13" customHeight="1" s="155">
+    <row r="10" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B10" s="71" t="inlineStr">
         <is>
           <t>Telemarketing (% of Direct Sales)</t>
@@ -13695,7 +13045,7 @@
       <c r="S10" s="77" t="n"/>
       <c r="T10" s="76" t="n"/>
     </row>
-    <row r="11" ht="13" customHeight="1" s="155">
+    <row r="11" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B11" s="99" t="inlineStr">
         <is>
           <t>Human Resources - Headcount</t>
@@ -13754,14 +13104,14 @@
       </c>
       <c r="P11" s="74" t="n"/>
       <c r="Q11" s="82">
-        <f>SUM(Summary!$D11:$O11)</f>
+        <f>SUM([1]Summary!$D11:$O11)</f>
         <v/>
       </c>
       <c r="R11" s="83" t="n"/>
       <c r="S11" s="102" t="n"/>
       <c r="T11" s="83" t="n"/>
     </row>
-    <row r="12" ht="13" customHeight="1" s="155">
+    <row r="12" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B12" s="99" t="inlineStr">
         <is>
           <t>Infrastructure Support</t>
@@ -13806,14 +13156,14 @@
       </c>
       <c r="P12" s="74" t="n"/>
       <c r="Q12" s="82">
-        <f>SUM(Summary!$D12:$O12)</f>
+        <f>SUM([1]Summary!$D12:$O12)</f>
         <v/>
       </c>
       <c r="R12" s="83" t="n"/>
       <c r="S12" s="102" t="n"/>
       <c r="T12" s="83" t="n"/>
     </row>
-    <row r="13" ht="13" customHeight="1" s="155">
+    <row r="13" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B13" s="99" t="inlineStr">
         <is>
           <t>Commission</t>
@@ -13872,14 +13222,14 @@
       </c>
       <c r="P13" s="74" t="n"/>
       <c r="Q13" s="82">
-        <f>SUM(Summary!$D13:$O13)</f>
+        <f>SUM([1]Summary!$D13:$O13)</f>
         <v/>
       </c>
       <c r="R13" s="83" t="n"/>
       <c r="S13" s="102" t="n"/>
       <c r="T13" s="83" t="n"/>
     </row>
-    <row r="14" ht="13" customHeight="1" s="155">
+    <row r="14" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B14" s="104" t="inlineStr">
         <is>
           <t>Training</t>
@@ -13924,78 +13274,78 @@
       </c>
       <c r="P14" s="74" t="n"/>
       <c r="Q14" s="88">
-        <f>SUM(Summary!$D14:$O14)</f>
+        <f>SUM([1]Summary!$D14:$O14)</f>
         <v/>
       </c>
       <c r="R14" s="89" t="n"/>
       <c r="S14" s="106" t="n"/>
       <c r="T14" s="89" t="n"/>
     </row>
-    <row r="15" ht="19" customHeight="1" s="155">
-      <c r="B15" s="176" t="inlineStr">
+    <row r="15" ht="19" customFormat="1" customHeight="1" s="107">
+      <c r="B15" s="108" t="inlineStr">
         <is>
           <t>Telemarketing Total $(000)</t>
         </is>
       </c>
-      <c r="C15" s="177" t="n"/>
-      <c r="D15" s="178">
+      <c r="C15" s="109" t="n"/>
+      <c r="D15" s="110">
         <f>SUM(D11:D14)</f>
         <v/>
       </c>
-      <c r="E15" s="178">
+      <c r="E15" s="110">
         <f>SUM(E11:E14)</f>
         <v/>
       </c>
-      <c r="F15" s="178">
+      <c r="F15" s="110">
         <f>SUM(F11:F14)</f>
         <v/>
       </c>
-      <c r="G15" s="178">
+      <c r="G15" s="110">
         <f>SUM(G11:G14)</f>
         <v/>
       </c>
-      <c r="H15" s="178">
+      <c r="H15" s="110">
         <f>SUM(H11:H14)</f>
         <v/>
       </c>
-      <c r="I15" s="178">
+      <c r="I15" s="110">
         <f>SUM(I11:I14)</f>
         <v/>
       </c>
-      <c r="J15" s="178">
+      <c r="J15" s="110">
         <f>SUM(J11:J14)</f>
         <v/>
       </c>
-      <c r="K15" s="178">
+      <c r="K15" s="110">
         <f>SUM(K11:K14)</f>
         <v/>
       </c>
-      <c r="L15" s="178">
+      <c r="L15" s="110">
         <f>SUM(L11:L14)</f>
         <v/>
       </c>
-      <c r="M15" s="178">
+      <c r="M15" s="110">
         <f>SUM(M11:M14)</f>
         <v/>
       </c>
-      <c r="N15" s="178">
+      <c r="N15" s="110">
         <f>SUM(N11:N14)</f>
         <v/>
       </c>
-      <c r="O15" s="178">
+      <c r="O15" s="110">
         <f>SUM(O11:O14)</f>
         <v/>
       </c>
       <c r="P15" s="111" t="n"/>
       <c r="Q15" s="112">
-        <f>SUM(Summary!$D15:$O15)</f>
+        <f>SUM([1]Summary!$D15:$O15)</f>
         <v/>
       </c>
       <c r="R15" s="113" t="n"/>
       <c r="S15" s="114" t="n"/>
       <c r="T15" s="113" t="n"/>
     </row>
-    <row r="16" ht="13" customHeight="1" s="155">
+    <row r="16" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B16" s="115" t="inlineStr">
         <is>
           <t>Internet Marketing (% of Direct Sales)</t>
@@ -14044,7 +13394,7 @@
       <c r="S16" s="120" t="n"/>
       <c r="T16" s="119" t="n"/>
     </row>
-    <row r="17" ht="13" customHeight="1" s="155">
+    <row r="17" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B17" s="99" t="inlineStr">
         <is>
           <t>Human Resources - Headcount</t>
@@ -14103,14 +13453,14 @@
       </c>
       <c r="P17" s="74" t="n"/>
       <c r="Q17" s="82">
-        <f>SUM(Summary!$D17:$O17)</f>
+        <f>SUM([1]Summary!$D17:$O17)</f>
         <v/>
       </c>
       <c r="R17" s="83" t="n"/>
       <c r="S17" s="102" t="n"/>
       <c r="T17" s="83" t="n"/>
     </row>
-    <row r="18" ht="13" customHeight="1" s="155">
+    <row r="18" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B18" s="99" t="inlineStr">
         <is>
           <t>Website Development (one-time cost)</t>
@@ -14133,14 +13483,14 @@
       <c r="O18" s="100" t="n"/>
       <c r="P18" s="74" t="n"/>
       <c r="Q18" s="82">
-        <f>SUM(Summary!$D18:$O18)</f>
+        <f>SUM([1]Summary!$D18:$O18)</f>
         <v/>
       </c>
       <c r="R18" s="83" t="n"/>
       <c r="S18" s="102" t="n"/>
       <c r="T18" s="83" t="n"/>
     </row>
-    <row r="19" ht="13" customHeight="1" s="155">
+    <row r="19" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B19" s="99" t="inlineStr">
         <is>
           <t>Hosting</t>
@@ -14185,14 +13535,14 @@
       </c>
       <c r="P19" s="74" t="n"/>
       <c r="Q19" s="82">
-        <f>SUM(Summary!$D19:$O19)</f>
+        <f>SUM([1]Summary!$D19:$O19)</f>
         <v/>
       </c>
       <c r="R19" s="83" t="n"/>
       <c r="S19" s="102" t="n"/>
       <c r="T19" s="83" t="n"/>
     </row>
-    <row r="20" ht="13" customHeight="1" s="155">
+    <row r="20" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B20" s="104" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
@@ -14217,78 +13567,78 @@
       <c r="O20" s="121" t="n"/>
       <c r="P20" s="74" t="n"/>
       <c r="Q20" s="88">
-        <f>SUM(Summary!$D20:$O20)</f>
+        <f>SUM([1]Summary!$D20:$O20)</f>
         <v/>
       </c>
       <c r="R20" s="89" t="n"/>
       <c r="S20" s="106" t="n"/>
       <c r="T20" s="89" t="n"/>
     </row>
-    <row r="21" ht="19" customHeight="1" s="155">
-      <c r="B21" s="176" t="inlineStr">
+    <row r="21" ht="19" customFormat="1" customHeight="1" s="107">
+      <c r="B21" s="108" t="inlineStr">
         <is>
           <t>Internet Marketing Total $(000)</t>
         </is>
       </c>
-      <c r="C21" s="176" t="n"/>
-      <c r="D21" s="179">
+      <c r="C21" s="108" t="n"/>
+      <c r="D21" s="122">
         <f>SUM(D17:D20)</f>
         <v/>
       </c>
-      <c r="E21" s="179">
+      <c r="E21" s="122">
         <f>SUM(E17:E20)</f>
         <v/>
       </c>
-      <c r="F21" s="179">
+      <c r="F21" s="122">
         <f>SUM(F17:F20)</f>
         <v/>
       </c>
-      <c r="G21" s="179">
+      <c r="G21" s="122">
         <f>SUM(G17:G20)</f>
         <v/>
       </c>
-      <c r="H21" s="179">
+      <c r="H21" s="122">
         <f>SUM(H17:H20)</f>
         <v/>
       </c>
-      <c r="I21" s="179">
+      <c r="I21" s="122">
         <f>SUM(I17:I20)</f>
         <v/>
       </c>
-      <c r="J21" s="179">
+      <c r="J21" s="122">
         <f>SUM(J17:J20)</f>
         <v/>
       </c>
-      <c r="K21" s="179">
+      <c r="K21" s="122">
         <f>SUM(K17:K20)</f>
         <v/>
       </c>
-      <c r="L21" s="179">
+      <c r="L21" s="122">
         <f>SUM(L17:L20)</f>
         <v/>
       </c>
-      <c r="M21" s="179">
+      <c r="M21" s="122">
         <f>SUM(M17:M20)</f>
         <v/>
       </c>
-      <c r="N21" s="179">
+      <c r="N21" s="122">
         <f>SUM(N17:N20)</f>
         <v/>
       </c>
-      <c r="O21" s="179">
+      <c r="O21" s="122">
         <f>SUM(O17:O20)</f>
         <v/>
       </c>
       <c r="P21" s="111" t="n"/>
       <c r="Q21" s="112">
-        <f>SUM(Summary!$D21:$O21)</f>
+        <f>SUM([1]Summary!$D21:$O21)</f>
         <v/>
       </c>
       <c r="R21" s="113" t="n"/>
       <c r="S21" s="114" t="n"/>
       <c r="T21" s="113" t="n"/>
     </row>
-    <row r="22" s="155">
+    <row r="22" customFormat="1" s="49">
       <c r="B22" s="115" t="inlineStr">
         <is>
           <t>Direct Mail (% of Direct Sales)</t>
@@ -14313,7 +13663,7 @@
       <c r="S22" s="120" t="n"/>
       <c r="T22" s="119" t="n"/>
     </row>
-    <row r="23" ht="13" customHeight="1" s="155">
+    <row r="23" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B23" s="99" t="inlineStr">
         <is>
           <t>Human Resources - Cost</t>
@@ -14334,14 +13684,14 @@
       <c r="O23" s="123" t="n"/>
       <c r="P23" s="74" t="n"/>
       <c r="Q23" s="82">
-        <f>SUM(Summary!$D23:$O23)</f>
+        <f>SUM([1]Summary!$D23:$O23)</f>
         <v/>
       </c>
       <c r="R23" s="83" t="n"/>
       <c r="S23" s="102" t="n"/>
       <c r="T23" s="83" t="n"/>
     </row>
-    <row r="24" ht="13" customHeight="1" s="155">
+    <row r="24" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B24" s="99" t="inlineStr">
         <is>
           <t>Material</t>
@@ -14386,14 +13736,14 @@
       </c>
       <c r="P24" s="74" t="n"/>
       <c r="Q24" s="82">
-        <f>SUM(Summary!$D24:$O24)</f>
+        <f>SUM([1]Summary!$D24:$O24)</f>
         <v/>
       </c>
       <c r="R24" s="83" t="n"/>
       <c r="S24" s="102" t="n"/>
       <c r="T24" s="83" t="n"/>
     </row>
-    <row r="25" ht="13" customHeight="1" s="155">
+    <row r="25" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B25" s="99" t="inlineStr">
         <is>
           <t>Postage</t>
@@ -14438,65 +13788,65 @@
       </c>
       <c r="P25" s="74" t="n"/>
       <c r="Q25" s="88">
-        <f>SUM(Summary!$D25:$O25)</f>
+        <f>SUM([1]Summary!$D25:$O25)</f>
         <v/>
       </c>
       <c r="R25" s="89" t="n"/>
       <c r="S25" s="106" t="n"/>
       <c r="T25" s="89" t="n"/>
     </row>
-    <row r="26" ht="20" customHeight="1" s="155">
-      <c r="B26" s="176" t="inlineStr">
+    <row r="26" ht="20" customFormat="1" customHeight="1" s="107" thickBot="1">
+      <c r="B26" s="108" t="inlineStr">
         <is>
           <t>Direct Mail Total $(000)</t>
         </is>
       </c>
-      <c r="C26" s="176" t="n"/>
-      <c r="D26" s="179">
+      <c r="C26" s="108" t="n"/>
+      <c r="D26" s="122">
         <f>SUM(D23:D25)</f>
         <v/>
       </c>
-      <c r="E26" s="179">
+      <c r="E26" s="122">
         <f>SUM(E23:E25)</f>
         <v/>
       </c>
-      <c r="F26" s="179">
+      <c r="F26" s="122">
         <f>SUM(F23:F25)</f>
         <v/>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="122">
         <f>SUM(G23:G25)</f>
         <v/>
       </c>
-      <c r="H26" s="179">
+      <c r="H26" s="122">
         <f>SUM(H23:H25)</f>
         <v/>
       </c>
-      <c r="I26" s="179">
+      <c r="I26" s="122">
         <f>SUM(I23:I25)</f>
         <v/>
       </c>
-      <c r="J26" s="179">
+      <c r="J26" s="122">
         <f>SUM(J23:J25)</f>
         <v/>
       </c>
-      <c r="K26" s="179">
+      <c r="K26" s="122">
         <f>SUM(K23:K25)</f>
         <v/>
       </c>
-      <c r="L26" s="179">
+      <c r="L26" s="122">
         <f>SUM(L23:L25)</f>
         <v/>
       </c>
-      <c r="M26" s="179">
+      <c r="M26" s="122">
         <f>SUM(M23:M25)</f>
         <v/>
       </c>
-      <c r="N26" s="179">
+      <c r="N26" s="122">
         <f>SUM(N23:N25)</f>
         <v/>
       </c>
-      <c r="O26" s="179">
+      <c r="O26" s="122">
         <f>SUM(O23:O25)</f>
         <v/>
       </c>
@@ -14509,58 +13859,58 @@
       <c r="S26" s="124" t="n"/>
       <c r="T26" s="113" t="n"/>
     </row>
-    <row r="27" ht="24" customHeight="1" s="155">
-      <c r="B27" s="180" t="inlineStr">
+    <row r="27" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B27" s="125" t="inlineStr">
         <is>
           <t>Direct Marketing Total $(000)</t>
         </is>
       </c>
-      <c r="C27" s="173" t="n"/>
-      <c r="D27" s="174">
+      <c r="C27" s="39" t="n"/>
+      <c r="D27" s="91">
         <f>SUM(D15,D21,D26)</f>
         <v/>
       </c>
-      <c r="E27" s="174">
+      <c r="E27" s="91">
         <f>SUM(E15,E21,E26)</f>
         <v/>
       </c>
-      <c r="F27" s="174">
+      <c r="F27" s="91">
         <f>SUM(F15,F21,F26)</f>
         <v/>
       </c>
-      <c r="G27" s="174">
+      <c r="G27" s="91">
         <f>SUM(G15,G21,G26)</f>
         <v/>
       </c>
-      <c r="H27" s="174">
+      <c r="H27" s="91">
         <f>SUM(H15,H21,H26)</f>
         <v/>
       </c>
-      <c r="I27" s="174">
+      <c r="I27" s="91">
         <f>SUM(I15,I21,I26)</f>
         <v/>
       </c>
-      <c r="J27" s="174">
+      <c r="J27" s="91">
         <f>SUM(J15,J21,J26)</f>
         <v/>
       </c>
-      <c r="K27" s="174">
+      <c r="K27" s="91">
         <f>SUM(K15,K21,K26)</f>
         <v/>
       </c>
-      <c r="L27" s="174">
+      <c r="L27" s="91">
         <f>SUM(L15,L21,L26)</f>
         <v/>
       </c>
-      <c r="M27" s="174">
+      <c r="M27" s="91">
         <f>SUM(M15,M21,M26)</f>
         <v/>
       </c>
-      <c r="N27" s="174">
+      <c r="N27" s="91">
         <f>SUM(N15,N21,N26)</f>
         <v/>
       </c>
-      <c r="O27" s="174">
+      <c r="O27" s="91">
         <f>SUM(O15,O21,O26)</f>
         <v/>
       </c>
@@ -14573,8 +13923,8 @@
       <c r="S27" s="114" t="n"/>
       <c r="T27" s="113" t="n"/>
     </row>
-    <row r="28" ht="27" customHeight="1" s="155">
-      <c r="B28" s="175" t="inlineStr">
+    <row r="28" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B28" s="96" t="inlineStr">
         <is>
           <t>AGENT/BROKER (% OF TOTAL SALES)</t>
         </is>
@@ -14622,7 +13972,7 @@
       <c r="S28" s="70" t="n"/>
       <c r="T28" s="69" t="n"/>
     </row>
-    <row r="29" ht="13" customHeight="1" s="155">
+    <row r="29" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B29" s="71" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -14667,14 +14017,14 @@
       </c>
       <c r="P29" s="74" t="n"/>
       <c r="Q29" s="75">
-        <f>SUM(Summary!$D29:$O29)</f>
+        <f>SUM([1]Summary!$D29:$O29)</f>
         <v/>
       </c>
       <c r="R29" s="76" t="n"/>
       <c r="S29" s="77" t="n"/>
       <c r="T29" s="76" t="n"/>
     </row>
-    <row r="30" ht="13" customHeight="1" s="155">
+    <row r="30" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B30" s="78" t="inlineStr">
         <is>
           <t>Training</t>
@@ -14719,14 +14069,14 @@
       </c>
       <c r="P30" s="81" t="n"/>
       <c r="Q30" s="82">
-        <f>SUM(Summary!$D30:$O30)</f>
+        <f>SUM([1]Summary!$D30:$O30)</f>
         <v/>
       </c>
       <c r="R30" s="83" t="n"/>
       <c r="S30" s="84" t="n"/>
       <c r="T30" s="83" t="n"/>
     </row>
-    <row r="31" ht="13" customHeight="1" s="155">
+    <row r="31" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B31" s="78" t="inlineStr">
         <is>
           <t>Promotions</t>
@@ -14771,14 +14121,14 @@
       </c>
       <c r="P31" s="81" t="n"/>
       <c r="Q31" s="82">
-        <f>SUM(Summary!$D31:$O31)</f>
+        <f>SUM([1]Summary!$D31:$O31)</f>
         <v/>
       </c>
       <c r="R31" s="83" t="n"/>
       <c r="S31" s="84" t="n"/>
       <c r="T31" s="83" t="n"/>
     </row>
-    <row r="32" ht="13" customHeight="1" s="155">
+    <row r="32" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B32" s="78" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -14837,14 +14187,14 @@
       </c>
       <c r="P32" s="81" t="n"/>
       <c r="Q32" s="82">
-        <f>SUM(Summary!$D32:$O32)</f>
+        <f>SUM([1]Summary!$D32:$O32)</f>
         <v/>
       </c>
       <c r="R32" s="83" t="n"/>
       <c r="S32" s="84" t="n"/>
       <c r="T32" s="83" t="n"/>
     </row>
-    <row r="33" ht="13" customHeight="1" s="155">
+    <row r="33" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B33" s="85" t="inlineStr">
         <is>
           <t>Commission (% of Agent's Sales)</t>
@@ -14903,65 +14253,65 @@
       </c>
       <c r="P33" s="74" t="n"/>
       <c r="Q33" s="88">
-        <f>SUM(Summary!$D33:$O33)</f>
+        <f>SUM([1]Summary!$D33:$O33)</f>
         <v/>
       </c>
       <c r="R33" s="89" t="n"/>
       <c r="S33" s="106" t="n"/>
       <c r="T33" s="89" t="n"/>
     </row>
-    <row r="34" ht="24" customHeight="1" s="155">
-      <c r="B34" s="173" t="inlineStr">
+    <row r="34" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B34" s="39" t="inlineStr">
         <is>
           <t>Agent/Broker Total $(000)</t>
         </is>
       </c>
-      <c r="C34" s="173" t="n"/>
-      <c r="D34" s="174">
+      <c r="C34" s="39" t="n"/>
+      <c r="D34" s="91">
         <f>SUM(D29:D33)</f>
         <v/>
       </c>
-      <c r="E34" s="174">
+      <c r="E34" s="91">
         <f>SUM(E29:E33)</f>
         <v/>
       </c>
-      <c r="F34" s="174">
+      <c r="F34" s="91">
         <f>SUM(F29:F33)</f>
         <v/>
       </c>
-      <c r="G34" s="174">
+      <c r="G34" s="91">
         <f>SUM(G29:G33)</f>
         <v/>
       </c>
-      <c r="H34" s="174">
+      <c r="H34" s="91">
         <f>SUM(H29:H33)</f>
         <v/>
       </c>
-      <c r="I34" s="174">
+      <c r="I34" s="91">
         <f>SUM(I29:I33)</f>
         <v/>
       </c>
-      <c r="J34" s="174">
+      <c r="J34" s="91">
         <f>SUM(J29:J33)</f>
         <v/>
       </c>
-      <c r="K34" s="174">
+      <c r="K34" s="91">
         <f>SUM(K29:K33)</f>
         <v/>
       </c>
-      <c r="L34" s="174">
+      <c r="L34" s="91">
         <f>SUM(L29:L33)</f>
         <v/>
       </c>
-      <c r="M34" s="174">
+      <c r="M34" s="91">
         <f>SUM(M29:M33)</f>
         <v/>
       </c>
-      <c r="N34" s="174">
+      <c r="N34" s="91">
         <f>SUM(N29:N33)</f>
         <v/>
       </c>
-      <c r="O34" s="174">
+      <c r="O34" s="91">
         <f>SUM(O29:O33)</f>
         <v/>
       </c>
@@ -14974,8 +14324,8 @@
       <c r="S34" s="114" t="n"/>
       <c r="T34" s="113" t="n"/>
     </row>
-    <row r="35" ht="27" customHeight="1" s="155">
-      <c r="B35" s="175" t="inlineStr">
+    <row r="35" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B35" s="96" t="inlineStr">
         <is>
           <t>DISTRIBUTORS (% OF TOTAL SALES)</t>
         </is>
@@ -15023,7 +14373,7 @@
       <c r="S35" s="70" t="n"/>
       <c r="T35" s="69" t="n"/>
     </row>
-    <row r="36" ht="13" customHeight="1" s="155">
+    <row r="36" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B36" s="71" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -15068,14 +14418,14 @@
       </c>
       <c r="P36" s="74" t="n"/>
       <c r="Q36" s="75">
-        <f>SUM(Summary!$D36:$O36)</f>
+        <f>SUM([1]Summary!$D36:$O36)</f>
         <v/>
       </c>
       <c r="R36" s="76" t="n"/>
       <c r="S36" s="77" t="n"/>
       <c r="T36" s="76" t="n"/>
     </row>
-    <row r="37" ht="13" customHeight="1" s="155">
+    <row r="37" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B37" s="78" t="inlineStr">
         <is>
           <t>Training</t>
@@ -15120,14 +14470,14 @@
       </c>
       <c r="P37" s="81" t="n"/>
       <c r="Q37" s="82">
-        <f>SUM(Summary!$D37:$O37)</f>
+        <f>SUM([1]Summary!$D37:$O37)</f>
         <v/>
       </c>
       <c r="R37" s="83" t="n"/>
       <c r="S37" s="84" t="n"/>
       <c r="T37" s="83" t="n"/>
     </row>
-    <row r="38" ht="13" customHeight="1" s="155">
+    <row r="38" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B38" s="78" t="inlineStr">
         <is>
           <t>Promotions</t>
@@ -15172,14 +14522,14 @@
       </c>
       <c r="P38" s="81" t="n"/>
       <c r="Q38" s="82">
-        <f>SUM(Summary!$D38:$O38)</f>
+        <f>SUM([1]Summary!$D38:$O38)</f>
         <v/>
       </c>
       <c r="R38" s="83" t="n"/>
       <c r="S38" s="84" t="n"/>
       <c r="T38" s="83" t="n"/>
     </row>
-    <row r="39" ht="13" customHeight="1" s="155">
+    <row r="39" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B39" s="85" t="inlineStr">
         <is>
           <t>Commission/Discounts (% of Distributors' Sales)</t>
@@ -15238,65 +14588,65 @@
       </c>
       <c r="P39" s="74" t="n"/>
       <c r="Q39" s="88">
-        <f>SUM(Summary!$D39:$O39)</f>
+        <f>SUM([1]Summary!$D39:$O39)</f>
         <v/>
       </c>
       <c r="R39" s="89" t="n"/>
       <c r="S39" s="106" t="n"/>
       <c r="T39" s="89" t="n"/>
     </row>
-    <row r="40" ht="24" customHeight="1" s="155">
-      <c r="B40" s="173" t="inlineStr">
+    <row r="40" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B40" s="39" t="inlineStr">
         <is>
           <t>Distributor Total $(000)</t>
         </is>
       </c>
-      <c r="C40" s="173" t="n"/>
-      <c r="D40" s="174">
+      <c r="C40" s="39" t="n"/>
+      <c r="D40" s="91">
         <f>SUM(D36:D39)</f>
         <v/>
       </c>
-      <c r="E40" s="174">
+      <c r="E40" s="91">
         <f>SUM(E36:E39)</f>
         <v/>
       </c>
-      <c r="F40" s="174">
+      <c r="F40" s="91">
         <f>SUM(F36:F39)</f>
         <v/>
       </c>
-      <c r="G40" s="174">
+      <c r="G40" s="91">
         <f>SUM(G36:G39)</f>
         <v/>
       </c>
-      <c r="H40" s="174">
+      <c r="H40" s="91">
         <f>SUM(H36:H39)</f>
         <v/>
       </c>
-      <c r="I40" s="174">
+      <c r="I40" s="91">
         <f>SUM(I36:I39)</f>
         <v/>
       </c>
-      <c r="J40" s="174">
+      <c r="J40" s="91">
         <f>SUM(J36:J39)</f>
         <v/>
       </c>
-      <c r="K40" s="174">
+      <c r="K40" s="91">
         <f>SUM(K36:K39)</f>
         <v/>
       </c>
-      <c r="L40" s="174">
+      <c r="L40" s="91">
         <f>SUM(L36:L39)</f>
         <v/>
       </c>
-      <c r="M40" s="174">
+      <c r="M40" s="91">
         <f>SUM(M36:M39)</f>
         <v/>
       </c>
-      <c r="N40" s="174">
+      <c r="N40" s="91">
         <f>SUM(N36:N39)</f>
         <v/>
       </c>
-      <c r="O40" s="174">
+      <c r="O40" s="91">
         <f>SUM(O36:O39)</f>
         <v/>
       </c>
@@ -15309,8 +14659,8 @@
       <c r="S40" s="114" t="n"/>
       <c r="T40" s="113" t="n"/>
     </row>
-    <row r="41" ht="27" customHeight="1" s="155">
-      <c r="B41" s="175" t="inlineStr">
+    <row r="41" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B41" s="96" t="inlineStr">
         <is>
           <t>RETAILER (% OF TOTAL SALES)</t>
         </is>
@@ -15358,7 +14708,7 @@
       <c r="S41" s="70" t="n"/>
       <c r="T41" s="69" t="n"/>
     </row>
-    <row r="42" ht="13" customHeight="1" s="155">
+    <row r="42" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B42" s="71" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -15403,14 +14753,14 @@
       </c>
       <c r="P42" s="74" t="n"/>
       <c r="Q42" s="75">
-        <f>SUM(Summary!$D42:$O42)</f>
+        <f>SUM([1]Summary!$D42:$O42)</f>
         <v/>
       </c>
       <c r="R42" s="76" t="n"/>
       <c r="S42" s="77" t="n"/>
       <c r="T42" s="76" t="n"/>
     </row>
-    <row r="43" ht="13" customHeight="1" s="155">
+    <row r="43" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B43" s="78" t="inlineStr">
         <is>
           <t>Training</t>
@@ -15455,14 +14805,14 @@
       </c>
       <c r="P43" s="81" t="n"/>
       <c r="Q43" s="82">
-        <f>SUM(Summary!$D43:$O43)</f>
+        <f>SUM([1]Summary!$D43:$O43)</f>
         <v/>
       </c>
       <c r="R43" s="83" t="n"/>
       <c r="S43" s="84" t="n"/>
       <c r="T43" s="83" t="n"/>
     </row>
-    <row r="44" ht="13" customHeight="1" s="155">
+    <row r="44" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B44" s="78" t="inlineStr">
         <is>
           <t>Promotions</t>
@@ -15507,14 +14857,14 @@
       </c>
       <c r="P44" s="81" t="n"/>
       <c r="Q44" s="82">
-        <f>SUM(Summary!$D44:$O44)</f>
+        <f>SUM([1]Summary!$D44:$O44)</f>
         <v/>
       </c>
       <c r="R44" s="83" t="n"/>
       <c r="S44" s="84" t="n"/>
       <c r="T44" s="83" t="n"/>
     </row>
-    <row r="45" ht="13" customHeight="1" s="155">
+    <row r="45" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B45" s="85" t="inlineStr">
         <is>
           <t>Commission/Discounts (% of Retail Sales)</t>
@@ -15573,65 +14923,65 @@
       </c>
       <c r="P45" s="74" t="n"/>
       <c r="Q45" s="88">
-        <f>SUM(Summary!$D45:$O45)</f>
+        <f>SUM([1]Summary!$D45:$O45)</f>
         <v/>
       </c>
       <c r="R45" s="89" t="n"/>
       <c r="S45" s="106" t="n"/>
       <c r="T45" s="89" t="n"/>
     </row>
-    <row r="46" ht="23" customHeight="1" s="155">
-      <c r="B46" s="173" t="inlineStr">
+    <row r="46" ht="23" customFormat="1" customHeight="1" s="127">
+      <c r="B46" s="39" t="inlineStr">
         <is>
           <t>Retailer Total $(000)</t>
         </is>
       </c>
-      <c r="C46" s="173" t="n"/>
-      <c r="D46" s="174">
+      <c r="C46" s="39" t="n"/>
+      <c r="D46" s="91">
         <f>SUM(D42:D45)</f>
         <v/>
       </c>
-      <c r="E46" s="174">
+      <c r="E46" s="91">
         <f>SUM(E42:E45)</f>
         <v/>
       </c>
-      <c r="F46" s="174">
+      <c r="F46" s="91">
         <f>SUM(F42:F45)</f>
         <v/>
       </c>
-      <c r="G46" s="174">
+      <c r="G46" s="91">
         <f>SUM(G42:G45)</f>
         <v/>
       </c>
-      <c r="H46" s="174">
+      <c r="H46" s="91">
         <f>SUM(H42:H45)</f>
         <v/>
       </c>
-      <c r="I46" s="174">
+      <c r="I46" s="91">
         <f>SUM(I42:I45)</f>
         <v/>
       </c>
-      <c r="J46" s="174">
+      <c r="J46" s="91">
         <f>SUM(J42:J45)</f>
         <v/>
       </c>
-      <c r="K46" s="174">
+      <c r="K46" s="91">
         <f>SUM(K42:K45)</f>
         <v/>
       </c>
-      <c r="L46" s="174">
+      <c r="L46" s="91">
         <f>SUM(L42:L45)</f>
         <v/>
       </c>
-      <c r="M46" s="174">
+      <c r="M46" s="91">
         <f>SUM(M42:M45)</f>
         <v/>
       </c>
-      <c r="N46" s="174">
+      <c r="N46" s="91">
         <f>SUM(N42:N45)</f>
         <v/>
       </c>
-      <c r="O46" s="174">
+      <c r="O46" s="91">
         <f>SUM(O42:O45)</f>
         <v/>
       </c>
@@ -15644,13 +14994,13 @@
       <c r="S46" s="114" t="n"/>
       <c r="T46" s="113" t="n"/>
     </row>
-    <row r="47" ht="27" customHeight="1" s="155">
-      <c r="B47" s="181" t="inlineStr">
+    <row r="47" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B47" s="129" t="inlineStr">
         <is>
           <t>CUSTOMER ACQUISITION &amp; RETENTION (CAR)</t>
         </is>
       </c>
-      <c r="C47" s="182" t="n"/>
+      <c r="C47" s="130" t="n"/>
       <c r="D47" s="66" t="n"/>
       <c r="E47" s="66" t="n"/>
       <c r="F47" s="66" t="n"/>
@@ -15669,7 +15019,7 @@
       <c r="S47" s="70" t="n"/>
       <c r="T47" s="69" t="n"/>
     </row>
-    <row r="48" ht="13" customHeight="1" s="155">
+    <row r="48" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B48" s="71" t="inlineStr">
         <is>
           <t>Human Resources</t>
@@ -15714,14 +15064,14 @@
       </c>
       <c r="P48" s="74" t="n"/>
       <c r="Q48" s="75">
-        <f>SUM(Summary!$D48:$O48)</f>
+        <f>SUM([1]Summary!$D48:$O48)</f>
         <v/>
       </c>
       <c r="R48" s="76" t="n"/>
       <c r="S48" s="77" t="n"/>
       <c r="T48" s="76" t="n"/>
     </row>
-    <row r="49" ht="13" customHeight="1" s="155">
+    <row r="49" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B49" s="78" t="inlineStr">
         <is>
           <t>Communications</t>
@@ -15766,14 +15116,14 @@
       </c>
       <c r="P49" s="81" t="n"/>
       <c r="Q49" s="82">
-        <f>SUM(Summary!$D49:$O49)</f>
+        <f>SUM([1]Summary!$D49:$O49)</f>
         <v/>
       </c>
       <c r="R49" s="83" t="n"/>
       <c r="S49" s="84" t="n"/>
       <c r="T49" s="83" t="n"/>
     </row>
-    <row r="50" ht="13" customHeight="1" s="155">
+    <row r="50" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B50" s="85" t="inlineStr">
         <is>
           <t>Promotions/Coupons</t>
@@ -15818,65 +15168,65 @@
       </c>
       <c r="P50" s="74" t="n"/>
       <c r="Q50" s="88">
-        <f>SUM(Summary!$D50:$O50)</f>
+        <f>SUM([1]Summary!$D50:$O50)</f>
         <v/>
       </c>
       <c r="R50" s="89" t="n"/>
       <c r="S50" s="106" t="n"/>
       <c r="T50" s="89" t="n"/>
     </row>
-    <row r="51" ht="24" customHeight="1" s="155">
-      <c r="B51" s="173" t="inlineStr">
+    <row r="51" ht="24" customFormat="1" customHeight="1" s="127" thickBot="1">
+      <c r="B51" s="39" t="inlineStr">
         <is>
           <t>CAR Total $(000)</t>
         </is>
       </c>
-      <c r="C51" s="173" t="n"/>
-      <c r="D51" s="174">
+      <c r="C51" s="39" t="n"/>
+      <c r="D51" s="91">
         <f>SUM(D48:D50)</f>
         <v/>
       </c>
-      <c r="E51" s="174">
+      <c r="E51" s="91">
         <f>SUM(E48:E50)</f>
         <v/>
       </c>
-      <c r="F51" s="174">
+      <c r="F51" s="91">
         <f>SUM(F48:F50)</f>
         <v/>
       </c>
-      <c r="G51" s="174">
+      <c r="G51" s="91">
         <f>SUM(G48:G50)</f>
         <v/>
       </c>
-      <c r="H51" s="174">
+      <c r="H51" s="91">
         <f>SUM(H48:H50)</f>
         <v/>
       </c>
-      <c r="I51" s="174">
+      <c r="I51" s="91">
         <f>SUM(I48:I50)</f>
         <v/>
       </c>
-      <c r="J51" s="174">
+      <c r="J51" s="91">
         <f>SUM(J48:J50)</f>
         <v/>
       </c>
-      <c r="K51" s="174">
+      <c r="K51" s="91">
         <f>SUM(K48:K50)</f>
         <v/>
       </c>
-      <c r="L51" s="174">
+      <c r="L51" s="91">
         <f>SUM(L48:L50)</f>
         <v/>
       </c>
-      <c r="M51" s="174">
+      <c r="M51" s="91">
         <f>SUM(M48:M50)</f>
         <v/>
       </c>
-      <c r="N51" s="174">
+      <c r="N51" s="91">
         <f>SUM(N48:N50)</f>
         <v/>
       </c>
-      <c r="O51" s="174">
+      <c r="O51" s="91">
         <f>SUM(O48:O50)</f>
         <v/>
       </c>
@@ -15889,8 +15239,8 @@
       <c r="S51" s="114" t="n"/>
       <c r="T51" s="113" t="n"/>
     </row>
-    <row r="52" ht="27" customHeight="1" s="155">
-      <c r="B52" s="175" t="inlineStr">
+    <row r="52" ht="27" customFormat="1" customHeight="1" s="63">
+      <c r="B52" s="96" t="inlineStr">
         <is>
           <t>OTHER EXPENSES</t>
         </is>
@@ -15914,7 +15264,7 @@
       <c r="S52" s="70" t="n"/>
       <c r="T52" s="69" t="n"/>
     </row>
-    <row r="53" ht="13" customHeight="1" s="155">
+    <row r="53" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B53" s="71" t="inlineStr">
         <is>
           <t>Travel</t>
@@ -15959,14 +15309,14 @@
       </c>
       <c r="P53" s="74" t="n"/>
       <c r="Q53" s="118">
-        <f>SUM(Summary!$D53:$O53)</f>
+        <f>SUM([1]Summary!$D53:$O53)</f>
         <v/>
       </c>
       <c r="R53" s="119" t="n"/>
       <c r="S53" s="120" t="n"/>
       <c r="T53" s="119" t="n"/>
     </row>
-    <row r="54" ht="13" customHeight="1" s="155">
+    <row r="54" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B54" s="78" t="inlineStr">
         <is>
           <t>Infrastructure (computer, telephone, etc.)</t>
@@ -16011,14 +15361,14 @@
       </c>
       <c r="P54" s="81" t="n"/>
       <c r="Q54" s="82">
-        <f>SUM(Summary!$D54:$O54)</f>
+        <f>SUM([1]Summary!$D54:$O54)</f>
         <v/>
       </c>
       <c r="R54" s="83" t="n"/>
       <c r="S54" s="84" t="n"/>
       <c r="T54" s="83" t="n"/>
     </row>
-    <row r="55" ht="13" customHeight="1" s="155">
+    <row r="55" ht="13" customFormat="1" customHeight="1" s="49">
       <c r="B55" s="85" t="inlineStr">
         <is>
           <t>Channel Support</t>
@@ -16063,65 +15413,65 @@
       </c>
       <c r="P55" s="74" t="n"/>
       <c r="Q55" s="88">
-        <f>SUM(Summary!$D55:$O55)</f>
+        <f>SUM([1]Summary!$D55:$O55)</f>
         <v/>
       </c>
       <c r="R55" s="89" t="n"/>
       <c r="S55" s="106" t="n"/>
       <c r="T55" s="89" t="n"/>
     </row>
-    <row r="56" ht="23" customHeight="1" s="155">
-      <c r="B56" s="173" t="inlineStr">
+    <row r="56" ht="23" customFormat="1" customHeight="1" s="127">
+      <c r="B56" s="39" t="inlineStr">
         <is>
           <t>Other Expenses Total $(000)</t>
         </is>
       </c>
-      <c r="C56" s="173" t="n"/>
-      <c r="D56" s="174">
+      <c r="C56" s="39" t="n"/>
+      <c r="D56" s="91">
         <f>SUM(D53:D55)</f>
         <v/>
       </c>
-      <c r="E56" s="174">
+      <c r="E56" s="91">
         <f>SUM(E53:E55)</f>
         <v/>
       </c>
-      <c r="F56" s="174">
+      <c r="F56" s="91">
         <f>SUM(F53:F55)</f>
         <v/>
       </c>
-      <c r="G56" s="174">
+      <c r="G56" s="91">
         <f>SUM(G53:G55)</f>
         <v/>
       </c>
-      <c r="H56" s="174">
+      <c r="H56" s="91">
         <f>SUM(H53:H55)</f>
         <v/>
       </c>
-      <c r="I56" s="174">
+      <c r="I56" s="91">
         <f>SUM(I53:I55)</f>
         <v/>
       </c>
-      <c r="J56" s="174">
+      <c r="J56" s="91">
         <f>SUM(J53:J55)</f>
         <v/>
       </c>
-      <c r="K56" s="174">
+      <c r="K56" s="91">
         <f>SUM(K53:K55)</f>
         <v/>
       </c>
-      <c r="L56" s="174">
+      <c r="L56" s="91">
         <f>SUM(L53:L55)</f>
         <v/>
       </c>
-      <c r="M56" s="174">
+      <c r="M56" s="91">
         <f>SUM(M53:M55)</f>
         <v/>
       </c>
-      <c r="N56" s="174">
+      <c r="N56" s="91">
         <f>SUM(N53:N55)</f>
         <v/>
       </c>
-      <c r="O56" s="174">
+      <c r="O56" s="91">
         <f>SUM(O53:O55)</f>
         <v/>
       </c>
@@ -16134,7 +15484,7 @@
       <c r="S56" s="114" t="n"/>
       <c r="T56" s="113" t="n"/>
     </row>
-    <row r="57" ht="15" customHeight="1" s="155">
+    <row r="57" ht="15" customHeight="1" s="155" thickBot="1">
       <c r="D57" s="47" t="n"/>
       <c r="E57" s="47" t="n"/>
       <c r="F57" s="47" t="n"/>
@@ -16153,7 +15503,7 @@
       <c r="S57" s="133" t="n"/>
       <c r="T57" s="132" t="n"/>
     </row>
-    <row r="58" ht="20" customHeight="1" s="155">
+    <row r="58" ht="20" customFormat="1" customHeight="1" s="127" thickTop="1">
       <c r="B58" s="134" t="inlineStr">
         <is>
           <t>TOTAL MARKETING BUDGET:</t>
@@ -16218,6 +15568,6 @@
       <c r="T58" s="138" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>